--- a/codeigniter/outputfile/sample.xlsx
+++ b/codeigniter/outputfile/sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>請求書</t>
   </si>
@@ -125,6 +125,9 @@
     <t>金額</t>
   </si>
   <si>
+    <t>軽油</t>
+  </si>
+  <si>
     <t>**商品計**</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
     <t>軽油ＥＮＥＯＳ</t>
   </si>
   <si>
-    <t>軽油引取税</t>
-  </si>
-  <si>
     <t>09-04</t>
   </si>
   <si>
@@ -188,6 +188,15 @@
     <t>09-27</t>
   </si>
   <si>
+    <t>09-28</t>
+  </si>
+  <si>
+    <t>軽油税</t>
+  </si>
+  <si>
+    <t>消費税</t>
+  </si>
+  <si>
     <t>主燃料</t>
   </si>
   <si>
@@ -197,9 +206,6 @@
     <t>レギュラー</t>
   </si>
   <si>
-    <t>軽油</t>
-  </si>
-  <si>
     <t>灯油</t>
   </si>
   <si>
@@ -209,9 +215,6 @@
     <t>御請求額</t>
   </si>
   <si>
-    <t>09-28</t>
-  </si>
-  <si>
     <t>09-25</t>
   </si>
   <si>
@@ -221,15 +224,15 @@
     <t>軽油（ＪＸＥ高速）</t>
   </si>
   <si>
+    <t>09-15</t>
+  </si>
+  <si>
+    <t>ﾖｼﾉｶﾞﾘ</t>
+  </si>
+  <si>
     <t>3/5</t>
   </si>
   <si>
-    <t>09-15</t>
-  </si>
-  <si>
-    <t>ﾖｼﾉｶﾞﾘ</t>
-  </si>
-  <si>
     <t>ﾇﾏﾂﾞﾊﾞｲﾊﾟｽﾉﾎﾞﾘ</t>
   </si>
   <si>
@@ -245,15 +248,15 @@
     <t>DDｲｼﾂﾞｶﾞﾜSS</t>
   </si>
   <si>
+    <t>09-19</t>
+  </si>
+  <si>
+    <t>DDｾﾙﾌｵｵﾋﾞﾗｷﾁｮｳ</t>
+  </si>
+  <si>
     <t>5/5</t>
   </si>
   <si>
-    <t>09-19</t>
-  </si>
-  <si>
-    <t>DDｾﾙﾌｵｵﾋﾞﾗｷﾁｮｳ</t>
-  </si>
-  <si>
     <t>ｵｵﾊｼSS</t>
   </si>
   <si>
@@ -288,6 +291,12 @@
   </si>
   <si>
     <t>ﾌｶｼﾉ</t>
+  </si>
+  <si>
+    <t>8ｺﾞｳｼﾞｮｳｴﾂﾆｼSS</t>
+  </si>
+  <si>
+    <t>09-13</t>
   </si>
 </sst>
 </file>
@@ -756,7 +765,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q500"/>
+  <dimension ref="A1:Q309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A292" sqref="A292:P307"/>
@@ -1308,7 +1317,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10">
-        <v>157783.1581</v>
+        <v>204060</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1624,13 +1633,19 @@
       <c r="Q41"/>
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="15">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="1">
+        <v>1756.11</v>
+      </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>136749</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1918,14 +1933,16 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" s="2">
+        <v>1756</v>
+      </c>
       <c r="P57" s="2"/>
       <c r="Q57"/>
     </row>
@@ -1939,14 +1956,18 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="M58" s="2">
+        <v>1756.11</v>
+      </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="O58" s="2">
+        <v>56371</v>
+      </c>
       <c r="P58" s="2"/>
       <c r="Q58"/>
     </row>
@@ -1960,14 +1981,16 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
+      <c r="O59" s="3">
+        <v>10940</v>
+      </c>
       <c r="P59" s="3"/>
       <c r="Q59"/>
     </row>
@@ -2017,7 +2040,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -2067,16 +2090,18 @@
         <v>2</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P64" s="4"/>
       <c r="Q64"/>
     </row>
     <row r="65" spans="1:17" customHeight="1" ht="15">
       <c r="A65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -2114,7 +2139,7 @@
     </row>
     <row r="67" spans="1:17" customHeight="1" ht="15">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B67">
         <v>20174137190019</v>
@@ -2137,11 +2162,11 @@
     </row>
     <row r="68" spans="1:17" customHeight="1" ht="15">
       <c r="A68" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
@@ -2157,7 +2182,7 @@
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N68" s="14"/>
       <c r="O68" s="14" t="s">
@@ -2168,17 +2193,17 @@
     </row>
     <row r="69" spans="1:17" customHeight="1" ht="15">
       <c r="A69" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2192,18 +2217,18 @@
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2">
-        <v>4179.6</v>
+        <v>3870</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69"/>
     </row>
     <row r="70" spans="1:17" customHeight="1" ht="15">
       <c r="A70" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2219,28 +2244,28 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2">
-        <v>1605</v>
+        <v>3870</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70"/>
     </row>
     <row r="71" spans="1:17" customHeight="1" ht="15">
       <c r="A71" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2254,14 +2279,14 @@
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2">
-        <v>4179.6</v>
+        <v>3870</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71"/>
     </row>
     <row r="72" spans="1:17" customHeight="1" ht="15">
       <c r="A72" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
@@ -2281,28 +2306,28 @@
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2">
-        <v>1605</v>
+        <v>3870</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72"/>
     </row>
     <row r="73" spans="1:17" customHeight="1" ht="15">
       <c r="A73" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2316,18 +2341,18 @@
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2">
-        <v>4179.6</v>
+        <v>3870</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73"/>
     </row>
     <row r="74" spans="1:17" customHeight="1" ht="15">
       <c r="A74" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2343,28 +2368,28 @@
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2">
-        <v>1605</v>
+        <v>3870</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74"/>
     </row>
     <row r="75" spans="1:17" customHeight="1" ht="15">
       <c r="A75" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2378,30 +2403,26 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2">
-        <v>4179.6</v>
+        <v>3870</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75"/>
     </row>
     <row r="76" spans="1:17" customHeight="1" ht="15">
-      <c r="A76" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2">
@@ -2409,163 +2430,119 @@
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2">
-        <v>1605</v>
+        <v>11235</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76"/>
     </row>
     <row r="77" spans="1:17" customHeight="1" ht="15">
-      <c r="A77" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2">
-        <v>50</v>
-      </c>
+      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="2">
-        <v>77.4</v>
-      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2">
-        <v>4179.6</v>
+        <v>2167</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77"/>
     </row>
     <row r="78" spans="1:17" customHeight="1" ht="15">
-      <c r="A78" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="2">
-        <v>50</v>
-      </c>
+      <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
-      <c r="O78" s="2">
-        <v>1605</v>
-      </c>
+      <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78"/>
     </row>
     <row r="79" spans="1:17" customHeight="1" ht="15">
-      <c r="A79" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2">
-        <v>50</v>
-      </c>
+      <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2">
-        <v>77.4</v>
-      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
-      <c r="O79" s="2">
-        <v>4179.6</v>
-      </c>
+      <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79"/>
     </row>
     <row r="80" spans="1:17" customHeight="1" ht="15">
-      <c r="A80" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="2">
-        <v>50</v>
-      </c>
+      <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="2">
-        <v>1605</v>
-      </c>
+      <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80"/>
     </row>
     <row r="81" spans="1:17" customHeight="1" ht="15">
       <c r="A81" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H81" s="14"/>
       <c r="I81" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J81" s="14"/>
       <c r="K81" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
       <c r="N81" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
@@ -2580,7 +2557,9 @@
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="G82" s="10">
+        <v>350</v>
+      </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
@@ -2588,16 +2567,14 @@
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10">
-        <v>34707.6</v>
+        <v>40492</v>
       </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
       <c r="Q82"/>
     </row>
     <row r="83" spans="1:17" customHeight="1" ht="25">
-      <c r="A83" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -2655,10 +2632,10 @@
     </row>
     <row r="86" spans="1:17" customHeight="1" ht="15">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B86">
-        <v>20174137190019</v>
+        <v>20174137190027</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -2678,11 +2655,11 @@
     </row>
     <row r="87" spans="1:17" customHeight="1" ht="15">
       <c r="A87" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
@@ -2698,7 +2675,7 @@
       </c>
       <c r="L87" s="14"/>
       <c r="M87" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N87" s="14"/>
       <c r="O87" s="14" t="s">
@@ -2709,54 +2686,50 @@
     </row>
     <row r="88" spans="1:17" customHeight="1" ht="15">
       <c r="A88" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2">
-        <v>77.4</v>
+        <v>98.05</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2">
-        <v>4179.6</v>
+        <v>3922</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="1:17" customHeight="1" ht="15">
-      <c r="A89" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2">
@@ -2764,7 +2737,7 @@
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2">
-        <v>1605</v>
+        <v>1284</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89"/>
@@ -2776,7 +2749,9 @@
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -2784,7 +2759,9 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+      <c r="O90" s="2">
+        <v>314</v>
+      </c>
       <c r="P90" s="2"/>
       <c r="Q90"/>
     </row>
@@ -2961,32 +2938,32 @@
     </row>
     <row r="100" spans="1:17" customHeight="1" ht="15">
       <c r="A100" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H100" s="14"/>
       <c r="I100" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J100" s="14"/>
       <c r="K100" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
       <c r="N100" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O100" s="14"/>
       <c r="P100" s="14"/>
@@ -3001,7 +2978,9 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="G101" s="10">
+        <v>40</v>
+      </c>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -3009,16 +2988,14 @@
       <c r="L101" s="10"/>
       <c r="M101" s="10"/>
       <c r="N101" s="10">
-        <v>5784.6</v>
+        <v>5520</v>
       </c>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101"/>
     </row>
     <row r="102" spans="1:17" customHeight="1" ht="25">
-      <c r="A102" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -3076,10 +3053,10 @@
     </row>
     <row r="105" spans="1:17" customHeight="1" ht="15">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B105">
-        <v>20174137190027</v>
+        <v>20174137190043</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -3099,11 +3076,11 @@
     </row>
     <row r="106" spans="1:17" customHeight="1" ht="15">
       <c r="A106" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106" s="14"/>
       <c r="C106" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -3119,7 +3096,7 @@
       </c>
       <c r="L106" s="14"/>
       <c r="M106" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N106" s="14"/>
       <c r="O106" s="14" t="s">
@@ -3130,54 +3107,50 @@
     </row>
     <row r="107" spans="1:17" customHeight="1" ht="15">
       <c r="A107" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2">
-        <v>98.05</v>
+        <v>77.4</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2">
-        <v>4235.76</v>
+        <v>2322</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="1:17" customHeight="1" ht="15">
-      <c r="A108" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2">
@@ -3185,7 +3158,7 @@
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2">
-        <v>1284</v>
+        <v>963</v>
       </c>
       <c r="P108" s="2"/>
       <c r="Q108"/>
@@ -3197,7 +3170,9 @@
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -3205,7 +3180,9 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
+      <c r="O109" s="2">
+        <v>186</v>
+      </c>
       <c r="P109" s="2"/>
       <c r="Q109"/>
     </row>
@@ -3382,32 +3359,32 @@
     </row>
     <row r="119" spans="1:17" customHeight="1" ht="15">
       <c r="A119" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H119" s="14"/>
       <c r="I119" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J119" s="14"/>
       <c r="K119" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O119" s="14"/>
       <c r="P119" s="14"/>
@@ -3422,7 +3399,9 @@
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="G120" s="10">
+        <v>30</v>
+      </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
       <c r="J120" s="10"/>
@@ -3430,16 +3409,14 @@
       <c r="L120" s="10"/>
       <c r="M120" s="10"/>
       <c r="N120" s="10">
-        <v>5519.76</v>
+        <v>3471</v>
       </c>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="1:17" customHeight="1" ht="25">
-      <c r="A121" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
@@ -3503,7 +3480,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -3553,16 +3530,18 @@
         <v>2</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P126" s="4"/>
       <c r="Q126"/>
     </row>
     <row r="127" spans="1:17" customHeight="1" ht="15">
       <c r="A127" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B127" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
@@ -3600,10 +3579,10 @@
     </row>
     <row r="129" spans="1:17" customHeight="1" ht="15">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B129">
-        <v>20174137190043</v>
+        <v>20174137190183</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
@@ -3623,11 +3602,11 @@
     </row>
     <row r="130" spans="1:17" customHeight="1" ht="15">
       <c r="A130" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
@@ -3643,7 +3622,7 @@
       </c>
       <c r="L130" s="14"/>
       <c r="M130" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N130" s="14"/>
       <c r="O130" s="14" t="s">
@@ -3654,23 +3633,23 @@
     </row>
     <row r="131" spans="1:17" customHeight="1" ht="15">
       <c r="A131" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2">
@@ -3678,18 +3657,18 @@
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2">
-        <v>2507.76</v>
+        <v>7740</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="1:17" customHeight="1" ht="15">
       <c r="A132" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3701,15 +3680,15 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2">
-        <v>963</v>
+        <v>7740</v>
       </c>
       <c r="P132" s="2"/>
       <c r="Q132"/>
@@ -3721,15 +3700,23 @@
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
+      <c r="K133" s="2">
+        <v>200</v>
+      </c>
       <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
+      <c r="M133" s="2">
+        <v>32.1</v>
+      </c>
       <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
+      <c r="O133" s="2">
+        <v>6420</v>
+      </c>
       <c r="P133" s="2"/>
       <c r="Q133"/>
     </row>
@@ -3740,7 +3727,9 @@
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -3748,7 +3737,9 @@
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
+      <c r="O134" s="2">
+        <v>1238</v>
+      </c>
       <c r="P134" s="2"/>
       <c r="Q134"/>
     </row>
@@ -3906,32 +3897,32 @@
     </row>
     <row r="143" spans="1:17" customHeight="1" ht="15">
       <c r="A143" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B143" s="14"/>
       <c r="C143" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H143" s="14"/>
       <c r="I143" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J143" s="14"/>
       <c r="K143" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L143" s="14"/>
       <c r="M143" s="14"/>
       <c r="N143" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O143" s="14"/>
       <c r="P143" s="14"/>
@@ -3946,7 +3937,9 @@
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="G144" s="10">
+        <v>200</v>
+      </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
       <c r="J144" s="10"/>
@@ -3954,16 +3947,14 @@
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
       <c r="N144" s="10">
-        <v>3470.76</v>
+        <v>23138</v>
       </c>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="1:17" customHeight="1" ht="25">
-      <c r="A145" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -4021,10 +4012,10 @@
     </row>
     <row r="148" spans="1:17" customHeight="1" ht="15">
       <c r="A148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B148">
-        <v>20174137190183</v>
+        <v>20174137190217</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
@@ -4044,11 +4035,11 @@
     </row>
     <row r="149" spans="1:17" customHeight="1" ht="15">
       <c r="A149" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
@@ -4064,7 +4055,7 @@
       </c>
       <c r="L149" s="14"/>
       <c r="M149" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N149" s="14"/>
       <c r="O149" s="14" t="s">
@@ -4079,13 +4070,13 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -4099,18 +4090,18 @@
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2">
-        <v>8359.2</v>
+        <v>7740</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="1:17" customHeight="1" ht="15">
       <c r="A151" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4122,32 +4113,32 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2">
-        <v>3210</v>
+        <v>3870</v>
       </c>
       <c r="P151" s="2"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="1:17" customHeight="1" ht="15">
       <c r="A152" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -4161,18 +4152,18 @@
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2">
-        <v>8359.2</v>
+        <v>7740</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="1:17" customHeight="1" ht="15">
       <c r="A153" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4184,35 +4175,47 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2">
-        <v>3210</v>
+        <v>3870</v>
       </c>
       <c r="P153" s="2"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="1:17" customHeight="1" ht="15">
-      <c r="A154" s="2"/>
+      <c r="A154" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+      <c r="G154" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="K154" s="2">
+        <v>50</v>
+      </c>
       <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
+      <c r="M154" s="2">
+        <v>77.4</v>
+      </c>
       <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
+      <c r="O154" s="2">
+        <v>3870</v>
+      </c>
       <c r="P154" s="2"/>
       <c r="Q154"/>
     </row>
@@ -4223,15 +4226,23 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+      <c r="K155" s="2">
+        <v>350</v>
+      </c>
       <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
+      <c r="M155" s="2">
+        <v>32.1</v>
+      </c>
       <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
+      <c r="O155" s="2">
+        <v>11235</v>
+      </c>
       <c r="P155" s="2"/>
       <c r="Q155"/>
     </row>
@@ -4242,7 +4253,9 @@
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
+      <c r="G156" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -4250,7 +4263,9 @@
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
+      <c r="O156" s="2">
+        <v>2167</v>
+      </c>
       <c r="P156" s="2"/>
       <c r="Q156"/>
     </row>
@@ -4351,32 +4366,32 @@
     </row>
     <row r="162" spans="1:17" customHeight="1" ht="15">
       <c r="A162" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B162" s="14"/>
       <c r="C162" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F162" s="14"/>
       <c r="G162" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H162" s="14"/>
       <c r="I162" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J162" s="14"/>
       <c r="K162" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L162" s="14"/>
       <c r="M162" s="14"/>
       <c r="N162" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O162" s="14"/>
       <c r="P162" s="14"/>
@@ -4391,7 +4406,9 @@
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="G163" s="10">
+        <v>350</v>
+      </c>
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
       <c r="J163" s="10"/>
@@ -4399,16 +4416,14 @@
       <c r="L163" s="10"/>
       <c r="M163" s="10"/>
       <c r="N163" s="10">
-        <v>23138.4</v>
+        <v>40492</v>
       </c>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
       <c r="Q163"/>
     </row>
     <row r="164" spans="1:17" customHeight="1" ht="25">
-      <c r="A164" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -4466,10 +4481,10 @@
     </row>
     <row r="167" spans="1:17" customHeight="1" ht="15">
       <c r="A167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B167">
-        <v>20174137190217</v>
+        <v>20174137190332</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
@@ -4489,11 +4504,11 @@
     </row>
     <row r="168" spans="1:17" customHeight="1" ht="15">
       <c r="A168" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B168" s="14"/>
       <c r="C168" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
@@ -4509,7 +4524,7 @@
       </c>
       <c r="L168" s="14"/>
       <c r="M168" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N168" s="14"/>
       <c r="O168" s="14" t="s">
@@ -4520,23 +4535,23 @@
     </row>
     <row r="169" spans="1:17" customHeight="1" ht="15">
       <c r="A169" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2">
@@ -4544,30 +4559,26 @@
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2">
-        <v>8359.2</v>
+        <v>3870</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169"/>
     </row>
     <row r="170" spans="1:17" customHeight="1" ht="15">
-      <c r="A170" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A170" s="2"/>
       <c r="B170" s="2"/>
-      <c r="C170" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2">
@@ -4575,256 +4586,164 @@
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2">
-        <v>3210</v>
+        <v>1605</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170"/>
     </row>
     <row r="171" spans="1:17" customHeight="1" ht="15">
-      <c r="A171" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A171" s="2"/>
       <c r="B171" s="2"/>
-      <c r="C171" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="2">
-        <v>50</v>
-      </c>
+      <c r="K171" s="2"/>
       <c r="L171" s="2"/>
-      <c r="M171" s="2">
-        <v>77.4</v>
-      </c>
+      <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2">
-        <v>4179.6</v>
+        <v>310</v>
       </c>
       <c r="P171" s="2"/>
       <c r="Q171"/>
     </row>
     <row r="172" spans="1:17" customHeight="1" ht="15">
-      <c r="A172" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A172" s="2"/>
       <c r="B172" s="2"/>
-      <c r="C172" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-      <c r="G172" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="2">
-        <v>50</v>
-      </c>
+      <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M172" s="2"/>
       <c r="N172" s="2"/>
-      <c r="O172" s="2">
-        <v>1605</v>
-      </c>
+      <c r="O172" s="2"/>
       <c r="P172" s="2"/>
       <c r="Q172"/>
     </row>
     <row r="173" spans="1:17" customHeight="1" ht="15">
-      <c r="A173" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A173" s="2"/>
       <c r="B173" s="2"/>
-      <c r="C173" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="G173" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="2">
-        <v>100</v>
-      </c>
+      <c r="K173" s="2"/>
       <c r="L173" s="2"/>
-      <c r="M173" s="2">
-        <v>77.4</v>
-      </c>
+      <c r="M173" s="2"/>
       <c r="N173" s="2"/>
-      <c r="O173" s="2">
-        <v>8359.2</v>
-      </c>
+      <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173"/>
     </row>
     <row r="174" spans="1:17" customHeight="1" ht="15">
-      <c r="A174" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A174" s="2"/>
       <c r="B174" s="2"/>
-      <c r="C174" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="G174" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="2">
-        <v>100</v>
-      </c>
+      <c r="K174" s="2"/>
       <c r="L174" s="2"/>
-      <c r="M174" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M174" s="2"/>
       <c r="N174" s="2"/>
-      <c r="O174" s="2">
-        <v>3210</v>
-      </c>
+      <c r="O174" s="2"/>
       <c r="P174" s="2"/>
       <c r="Q174"/>
     </row>
     <row r="175" spans="1:17" customHeight="1" ht="15">
-      <c r="A175" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A175" s="2"/>
       <c r="B175" s="2"/>
-      <c r="C175" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-      <c r="G175" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="2">
-        <v>50</v>
-      </c>
+      <c r="K175" s="2"/>
       <c r="L175" s="2"/>
-      <c r="M175" s="2">
-        <v>77.4</v>
-      </c>
+      <c r="M175" s="2"/>
       <c r="N175" s="2"/>
-      <c r="O175" s="2">
-        <v>4179.6</v>
-      </c>
+      <c r="O175" s="2"/>
       <c r="P175" s="2"/>
       <c r="Q175"/>
     </row>
     <row r="176" spans="1:17" customHeight="1" ht="15">
-      <c r="A176" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A176" s="2"/>
       <c r="B176" s="2"/>
-      <c r="C176" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-      <c r="G176" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
-      <c r="K176" s="2">
-        <v>50</v>
-      </c>
+      <c r="K176" s="2"/>
       <c r="L176" s="2"/>
-      <c r="M176" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M176" s="2"/>
       <c r="N176" s="2"/>
-      <c r="O176" s="2">
-        <v>1605</v>
-      </c>
+      <c r="O176" s="2"/>
       <c r="P176" s="2"/>
       <c r="Q176"/>
     </row>
     <row r="177" spans="1:17" customHeight="1" ht="15">
-      <c r="A177" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A177" s="2"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
-      <c r="G177" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="2">
-        <v>50</v>
-      </c>
+      <c r="K177" s="2"/>
       <c r="L177" s="2"/>
-      <c r="M177" s="2">
-        <v>77.4</v>
-      </c>
+      <c r="M177" s="2"/>
       <c r="N177" s="2"/>
-      <c r="O177" s="2">
-        <v>4179.6</v>
-      </c>
+      <c r="O177" s="2"/>
       <c r="P177" s="2"/>
       <c r="Q177"/>
     </row>
     <row r="178" spans="1:17" customHeight="1" ht="15">
-      <c r="A178" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A178" s="2"/>
       <c r="B178" s="2"/>
-      <c r="C178" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-      <c r="G178" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="2">
-        <v>50</v>
-      </c>
+      <c r="K178" s="2"/>
       <c r="L178" s="2"/>
-      <c r="M178" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M178" s="2"/>
       <c r="N178" s="2"/>
-      <c r="O178" s="2">
-        <v>1605</v>
-      </c>
+      <c r="O178" s="2"/>
       <c r="P178" s="2"/>
       <c r="Q178"/>
     </row>
@@ -4868,32 +4787,32 @@
     </row>
     <row r="181" spans="1:17" customHeight="1" ht="15">
       <c r="A181" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B181" s="14"/>
       <c r="C181" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H181" s="14"/>
       <c r="I181" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J181" s="14"/>
       <c r="K181" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L181" s="14"/>
       <c r="M181" s="14"/>
       <c r="N181" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O181" s="14"/>
       <c r="P181" s="14"/>
@@ -4908,7 +4827,9 @@
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="G182" s="10">
+        <v>50</v>
+      </c>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
       <c r="J182" s="10"/>
@@ -4916,16 +4837,14 @@
       <c r="L182" s="10"/>
       <c r="M182" s="10"/>
       <c r="N182" s="10">
-        <v>40492.2</v>
+        <v>5785</v>
       </c>
       <c r="O182" s="10"/>
       <c r="P182" s="10"/>
       <c r="Q182"/>
     </row>
     <row r="183" spans="1:17" customHeight="1" ht="25">
-      <c r="A183" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -4989,7 +4908,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
@@ -5039,16 +4958,18 @@
         <v>2</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P188" s="4"/>
       <c r="Q188"/>
     </row>
     <row r="189" spans="1:17" customHeight="1" ht="15">
       <c r="A189" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B189" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
@@ -5086,10 +5007,10 @@
     </row>
     <row r="191" spans="1:17" customHeight="1" ht="15">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B191">
-        <v>20174137190332</v>
+        <v>20174137190357</v>
       </c>
       <c r="C191"/>
       <c r="D191"/>
@@ -5109,11 +5030,11 @@
     </row>
     <row r="192" spans="1:17" customHeight="1" ht="15">
       <c r="A192" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
@@ -5129,7 +5050,7 @@
       </c>
       <c r="L192" s="14"/>
       <c r="M192" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N192" s="14"/>
       <c r="O192" s="14" t="s">
@@ -5140,17 +5061,17 @@
     </row>
     <row r="193" spans="1:17" customHeight="1" ht="15">
       <c r="A193" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -5164,24 +5085,20 @@
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2">
-        <v>4179.6</v>
+        <v>3870</v>
       </c>
       <c r="P193" s="2"/>
       <c r="Q193"/>
     </row>
     <row r="194" spans="1:17" customHeight="1" ht="15">
-      <c r="A194" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A194" s="2"/>
       <c r="B194" s="2"/>
-      <c r="C194" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -5207,7 +5124,9 @@
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
+      <c r="G195" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -5215,7 +5134,9 @@
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
+      <c r="O195" s="2">
+        <v>310</v>
+      </c>
       <c r="P195" s="2"/>
       <c r="Q195"/>
     </row>
@@ -5392,32 +5313,32 @@
     </row>
     <row r="205" spans="1:17" customHeight="1" ht="15">
       <c r="A205" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B205" s="14"/>
       <c r="C205" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D205" s="14"/>
       <c r="E205" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H205" s="14"/>
       <c r="I205" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J205" s="14"/>
       <c r="K205" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L205" s="14"/>
       <c r="M205" s="14"/>
       <c r="N205" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O205" s="14"/>
       <c r="P205" s="14"/>
@@ -5432,7 +5353,9 @@
       <c r="D206" s="10"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="G206" s="10">
+        <v>50</v>
+      </c>
       <c r="H206" s="10"/>
       <c r="I206" s="10"/>
       <c r="J206" s="10"/>
@@ -5440,16 +5363,14 @@
       <c r="L206" s="10"/>
       <c r="M206" s="10"/>
       <c r="N206" s="10">
-        <v>5784.6</v>
+        <v>5785</v>
       </c>
       <c r="O206" s="10"/>
       <c r="P206" s="10"/>
       <c r="Q206"/>
     </row>
     <row r="207" spans="1:17" customHeight="1" ht="25">
-      <c r="A207" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -5507,10 +5428,10 @@
     </row>
     <row r="210" spans="1:17" customHeight="1" ht="15">
       <c r="A210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B210">
-        <v>20174137190357</v>
+        <v>20174137190548</v>
       </c>
       <c r="C210"/>
       <c r="D210"/>
@@ -5530,11 +5451,11 @@
     </row>
     <row r="211" spans="1:17" customHeight="1" ht="15">
       <c r="A211" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B211" s="14"/>
       <c r="C211" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D211" s="14"/>
       <c r="E211" s="14"/>
@@ -5550,7 +5471,7 @@
       </c>
       <c r="L211" s="14"/>
       <c r="M211" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N211" s="14"/>
       <c r="O211" s="14" t="s">
@@ -5561,17 +5482,17 @@
     </row>
     <row r="212" spans="1:17" customHeight="1" ht="15">
       <c r="A212" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -5585,24 +5506,20 @@
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2">
-        <v>4179.6</v>
+        <v>3870</v>
       </c>
       <c r="P212" s="2"/>
       <c r="Q212"/>
     </row>
     <row r="213" spans="1:17" customHeight="1" ht="15">
-      <c r="A213" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A213" s="2"/>
       <c r="B213" s="2"/>
-      <c r="C213" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -5628,7 +5545,9 @@
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
+      <c r="G214" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
@@ -5636,7 +5555,9 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
+      <c r="O214" s="2">
+        <v>310</v>
+      </c>
       <c r="P214" s="2"/>
       <c r="Q214"/>
     </row>
@@ -5813,32 +5734,32 @@
     </row>
     <row r="224" spans="1:17" customHeight="1" ht="15">
       <c r="A224" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B224" s="14"/>
       <c r="C224" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F224" s="14"/>
       <c r="G224" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H224" s="14"/>
       <c r="I224" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J224" s="14"/>
       <c r="K224" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L224" s="14"/>
       <c r="M224" s="14"/>
       <c r="N224" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O224" s="14"/>
       <c r="P224" s="14"/>
@@ -5853,7 +5774,9 @@
       <c r="D225" s="10"/>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
+      <c r="G225" s="10">
+        <v>50</v>
+      </c>
       <c r="H225" s="10"/>
       <c r="I225" s="10"/>
       <c r="J225" s="10"/>
@@ -5861,16 +5784,14 @@
       <c r="L225" s="10"/>
       <c r="M225" s="10"/>
       <c r="N225" s="10">
-        <v>5784.6</v>
+        <v>5785</v>
       </c>
       <c r="O225" s="10"/>
       <c r="P225" s="10"/>
       <c r="Q225"/>
     </row>
     <row r="226" spans="1:17" customHeight="1" ht="25">
-      <c r="A226" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -5928,10 +5849,10 @@
     </row>
     <row r="229" spans="1:17" customHeight="1" ht="15">
       <c r="A229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B229">
-        <v>20174137190548</v>
+        <v>20174137190670</v>
       </c>
       <c r="C229"/>
       <c r="D229"/>
@@ -5951,11 +5872,11 @@
     </row>
     <row r="230" spans="1:17" customHeight="1" ht="15">
       <c r="A230" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B230" s="14"/>
       <c r="C230" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D230" s="14"/>
       <c r="E230" s="14"/>
@@ -5971,7 +5892,7 @@
       </c>
       <c r="L230" s="14"/>
       <c r="M230" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N230" s="14"/>
       <c r="O230" s="14" t="s">
@@ -5982,23 +5903,23 @@
     </row>
     <row r="231" spans="1:17" customHeight="1" ht="15">
       <c r="A231" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L231" s="2"/>
       <c r="M231" s="2">
@@ -6006,30 +5927,26 @@
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2">
-        <v>4179.6</v>
+        <v>1548</v>
       </c>
       <c r="P231" s="2"/>
       <c r="Q231"/>
     </row>
     <row r="232" spans="1:17" customHeight="1" ht="15">
-      <c r="A232" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A232" s="2"/>
       <c r="B232" s="2"/>
-      <c r="C232" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L232" s="2"/>
       <c r="M232" s="2">
@@ -6037,7 +5954,7 @@
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2">
-        <v>1605</v>
+        <v>642</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232"/>
@@ -6049,7 +5966,9 @@
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
+      <c r="G233" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
@@ -6057,7 +5976,9 @@
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
+      <c r="O233" s="2">
+        <v>124</v>
+      </c>
       <c r="P233" s="2"/>
       <c r="Q233"/>
     </row>
@@ -6234,32 +6155,32 @@
     </row>
     <row r="243" spans="1:17" customHeight="1" ht="15">
       <c r="A243" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B243" s="14"/>
       <c r="C243" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D243" s="14"/>
       <c r="E243" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F243" s="14"/>
       <c r="G243" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H243" s="14"/>
       <c r="I243" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J243" s="14"/>
       <c r="K243" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L243" s="14"/>
       <c r="M243" s="14"/>
       <c r="N243" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O243" s="14"/>
       <c r="P243" s="14"/>
@@ -6274,7 +6195,9 @@
       <c r="D244" s="10"/>
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
+      <c r="G244" s="10">
+        <v>20</v>
+      </c>
       <c r="H244" s="10"/>
       <c r="I244" s="10"/>
       <c r="J244" s="10"/>
@@ -6282,16 +6205,14 @@
       <c r="L244" s="10"/>
       <c r="M244" s="10"/>
       <c r="N244" s="10">
-        <v>5784.6</v>
+        <v>2314</v>
       </c>
       <c r="O244" s="10"/>
       <c r="P244" s="10"/>
       <c r="Q244"/>
     </row>
     <row r="245" spans="1:17" customHeight="1" ht="25">
-      <c r="A245" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -6355,7 +6276,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
@@ -6405,16 +6326,18 @@
         <v>2</v>
       </c>
       <c r="O250" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P250" s="4"/>
       <c r="Q250"/>
     </row>
     <row r="251" spans="1:17" customHeight="1" ht="15">
       <c r="A251" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B251" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
       <c r="E251" s="14"/>
@@ -6452,10 +6375,10 @@
     </row>
     <row r="253" spans="1:17" customHeight="1" ht="15">
       <c r="A253" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B253">
-        <v>20174137190670</v>
+        <v>20174137190688</v>
       </c>
       <c r="C253"/>
       <c r="D253"/>
@@ -6475,11 +6398,11 @@
     </row>
     <row r="254" spans="1:17" customHeight="1" ht="15">
       <c r="A254" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B254" s="14"/>
       <c r="C254" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D254" s="14"/>
       <c r="E254" s="14"/>
@@ -6495,7 +6418,7 @@
       </c>
       <c r="L254" s="14"/>
       <c r="M254" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N254" s="14"/>
       <c r="O254" s="14" t="s">
@@ -6506,17 +6429,17 @@
     </row>
     <row r="255" spans="1:17" customHeight="1" ht="15">
       <c r="A255" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
@@ -6530,18 +6453,18 @@
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2">
-        <v>1671.84</v>
+        <v>1548</v>
       </c>
       <c r="P255" s="2"/>
       <c r="Q255"/>
     </row>
     <row r="256" spans="1:17" customHeight="1" ht="15">
       <c r="A256" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -6553,54 +6476,78 @@
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L256" s="2"/>
       <c r="M256" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2">
-        <v>642</v>
+        <v>2322</v>
       </c>
       <c r="P256" s="2"/>
       <c r="Q256"/>
     </row>
     <row r="257" spans="1:17" customHeight="1" ht="15">
-      <c r="A257" s="2"/>
+      <c r="A257" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
+      <c r="C257" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
+      <c r="G257" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
+      <c r="K257" s="2">
+        <v>20</v>
+      </c>
       <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
+      <c r="M257" s="2">
+        <v>77.4</v>
+      </c>
       <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
+      <c r="O257" s="2">
+        <v>1548</v>
+      </c>
       <c r="P257" s="2"/>
       <c r="Q257"/>
     </row>
     <row r="258" spans="1:17" customHeight="1" ht="15">
-      <c r="A258" s="2"/>
+      <c r="A258" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
+      <c r="C258" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
+      <c r="G258" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
+      <c r="K258" s="2">
+        <v>10</v>
+      </c>
       <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
+      <c r="M258" s="2">
+        <v>77.4</v>
+      </c>
       <c r="N258" s="2"/>
-      <c r="O258" s="2"/>
+      <c r="O258" s="2">
+        <v>774</v>
+      </c>
       <c r="P258" s="2"/>
       <c r="Q258"/>
     </row>
@@ -6611,15 +6558,23 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
+      <c r="G259" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
+      <c r="K259" s="2">
+        <v>80</v>
+      </c>
       <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
+      <c r="M259" s="2">
+        <v>32.1</v>
+      </c>
       <c r="N259" s="2"/>
-      <c r="O259" s="2"/>
+      <c r="O259" s="2">
+        <v>2568</v>
+      </c>
       <c r="P259" s="2"/>
       <c r="Q259"/>
     </row>
@@ -6630,7 +6585,9 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
+      <c r="G260" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
@@ -6638,7 +6595,9 @@
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
-      <c r="O260" s="2"/>
+      <c r="O260" s="2">
+        <v>495</v>
+      </c>
       <c r="P260" s="2"/>
       <c r="Q260"/>
     </row>
@@ -6758,32 +6717,32 @@
     </row>
     <row r="267" spans="1:17" customHeight="1" ht="15">
       <c r="A267" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B267" s="14"/>
       <c r="C267" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D267" s="14"/>
       <c r="E267" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F267" s="14"/>
       <c r="G267" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H267" s="14"/>
       <c r="I267" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J267" s="14"/>
       <c r="K267" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L267" s="14"/>
       <c r="M267" s="14"/>
       <c r="N267" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O267" s="14"/>
       <c r="P267" s="14"/>
@@ -6798,7 +6757,9 @@
       <c r="D268" s="10"/>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
-      <c r="G268" s="10"/>
+      <c r="G268" s="10">
+        <v>80</v>
+      </c>
       <c r="H268" s="10"/>
       <c r="I268" s="10"/>
       <c r="J268" s="10"/>
@@ -6806,16 +6767,14 @@
       <c r="L268" s="10"/>
       <c r="M268" s="10"/>
       <c r="N268" s="10">
-        <v>2313.84</v>
+        <v>9255</v>
       </c>
       <c r="O268" s="10"/>
       <c r="P268" s="10"/>
       <c r="Q268"/>
     </row>
     <row r="269" spans="1:17" customHeight="1" ht="25">
-      <c r="A269" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -6873,10 +6832,10 @@
     </row>
     <row r="272" spans="1:17" customHeight="1" ht="15">
       <c r="A272" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B272">
-        <v>20174137190688</v>
+        <v>20174137190720</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -6896,11 +6855,11 @@
     </row>
     <row r="273" spans="1:17" customHeight="1" ht="15">
       <c r="A273" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B273" s="14"/>
       <c r="C273" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D273" s="14"/>
       <c r="E273" s="14"/>
@@ -6916,7 +6875,7 @@
       </c>
       <c r="L273" s="14"/>
       <c r="M273" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N273" s="14"/>
       <c r="O273" s="14" t="s">
@@ -6927,23 +6886,23 @@
     </row>
     <row r="274" spans="1:17" customHeight="1" ht="15">
       <c r="A274" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
       <c r="G274" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L274" s="2"/>
       <c r="M274" s="2">
@@ -6951,18 +6910,18 @@
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="2">
-        <v>1671.84</v>
+        <v>3096</v>
       </c>
       <c r="P274" s="2"/>
       <c r="Q274"/>
     </row>
     <row r="275" spans="1:17" customHeight="1" ht="15">
       <c r="A275" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -6974,38 +6933,38 @@
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2">
-        <v>20</v>
+        <v>46.11</v>
       </c>
       <c r="L275" s="2"/>
       <c r="M275" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="2">
-        <v>642</v>
+        <v>3569</v>
       </c>
       <c r="P275" s="2"/>
       <c r="Q275"/>
     </row>
     <row r="276" spans="1:17" customHeight="1" ht="15">
       <c r="A276" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L276" s="2"/>
       <c r="M276" s="2">
@@ -7013,18 +6972,18 @@
       </c>
       <c r="N276" s="2"/>
       <c r="O276" s="2">
-        <v>2507.76</v>
+        <v>1548</v>
       </c>
       <c r="P276" s="2"/>
       <c r="Q276"/>
     </row>
     <row r="277" spans="1:17" customHeight="1" ht="15">
       <c r="A277" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -7040,136 +6999,100 @@
       </c>
       <c r="L277" s="2"/>
       <c r="M277" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2">
-        <v>963</v>
+        <v>2322</v>
       </c>
       <c r="P277" s="2"/>
       <c r="Q277"/>
     </row>
     <row r="278" spans="1:17" customHeight="1" ht="15">
-      <c r="A278" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A278" s="2"/>
       <c r="B278" s="2"/>
-      <c r="C278" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
       <c r="K278" s="2">
-        <v>20</v>
+        <v>136.11</v>
       </c>
       <c r="L278" s="2"/>
       <c r="M278" s="2">
-        <v>77.4</v>
+        <v>32.1</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" s="2">
-        <v>1671.84</v>
+        <v>4369</v>
       </c>
       <c r="P278" s="2"/>
       <c r="Q278"/>
     </row>
     <row r="279" spans="1:17" customHeight="1" ht="15">
-      <c r="A279" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="A279" s="2"/>
       <c r="B279" s="2"/>
-      <c r="C279" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
-      <c r="K279" s="2">
-        <v>20</v>
-      </c>
+      <c r="K279" s="2"/>
       <c r="L279" s="2"/>
-      <c r="M279" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M279" s="2"/>
       <c r="N279" s="2"/>
       <c r="O279" s="2">
-        <v>642</v>
+        <v>843</v>
       </c>
       <c r="P279" s="2"/>
       <c r="Q279"/>
     </row>
     <row r="280" spans="1:17" customHeight="1" ht="15">
-      <c r="A280" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A280" s="2"/>
       <c r="B280" s="2"/>
-      <c r="C280" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
-      <c r="G280" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
-      <c r="K280" s="2">
-        <v>10</v>
-      </c>
+      <c r="K280" s="2"/>
       <c r="L280" s="2"/>
-      <c r="M280" s="2">
-        <v>77.4</v>
-      </c>
+      <c r="M280" s="2"/>
       <c r="N280" s="2"/>
-      <c r="O280" s="2">
-        <v>835.92</v>
-      </c>
+      <c r="O280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280"/>
     </row>
     <row r="281" spans="1:17" customHeight="1" ht="15">
-      <c r="A281" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="A281" s="2"/>
       <c r="B281" s="2"/>
-      <c r="C281" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
-      <c r="G281" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
-      <c r="K281" s="2">
-        <v>10</v>
-      </c>
+      <c r="K281" s="2"/>
       <c r="L281" s="2"/>
-      <c r="M281" s="2">
-        <v>32.1</v>
-      </c>
+      <c r="M281" s="2"/>
       <c r="N281" s="2"/>
-      <c r="O281" s="2">
-        <v>321</v>
-      </c>
+      <c r="O281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281"/>
     </row>
@@ -7251,32 +7174,32 @@
     </row>
     <row r="286" spans="1:17" customHeight="1" ht="15">
       <c r="A286" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B286" s="14"/>
       <c r="C286" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D286" s="14"/>
       <c r="E286" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F286" s="14"/>
       <c r="G286" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H286" s="14"/>
       <c r="I286" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J286" s="14"/>
       <c r="K286" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L286" s="14"/>
       <c r="M286" s="14"/>
       <c r="N286" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O286" s="14"/>
       <c r="P286" s="14"/>
@@ -7291,7 +7214,9 @@
       <c r="D287" s="10"/>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
-      <c r="G287" s="10"/>
+      <c r="G287" s="10">
+        <v>136.11</v>
+      </c>
       <c r="H287" s="10"/>
       <c r="I287" s="10"/>
       <c r="J287" s="10"/>
@@ -7299,16 +7224,14 @@
       <c r="L287" s="10"/>
       <c r="M287" s="10"/>
       <c r="N287" s="10">
-        <v>9255.36</v>
+        <v>15747</v>
       </c>
       <c r="O287" s="10"/>
       <c r="P287" s="10"/>
       <c r="Q287"/>
     </row>
     <row r="288" spans="1:17" customHeight="1" ht="25">
-      <c r="A288" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
       <c r="D288" s="10"/>
@@ -7366,10 +7289,10 @@
     </row>
     <row r="291" spans="1:17" customHeight="1" ht="15">
       <c r="A291" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B291">
-        <v>20174137190720</v>
+        <v>20174137191017</v>
       </c>
       <c r="C291"/>
       <c r="D291"/>
@@ -7389,11 +7312,11 @@
     </row>
     <row r="292" spans="1:17" customHeight="1" ht="15">
       <c r="A292" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B292" s="14"/>
       <c r="C292" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D292" s="14"/>
       <c r="E292" s="14"/>
@@ -7409,7 +7332,7 @@
       </c>
       <c r="L292" s="14"/>
       <c r="M292" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N292" s="14"/>
       <c r="O292" s="14" t="s">
@@ -7420,23 +7343,23 @@
     </row>
     <row r="293" spans="1:17" customHeight="1" ht="15">
       <c r="A293" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L293" s="2"/>
       <c r="M293" s="2">
@@ -7444,18 +7367,18 @@
       </c>
       <c r="N293" s="2"/>
       <c r="O293" s="2">
-        <v>3343.68</v>
+        <v>3870</v>
       </c>
       <c r="P293" s="2"/>
       <c r="Q293"/>
     </row>
     <row r="294" spans="1:17" customHeight="1" ht="15">
       <c r="A294" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -7467,38 +7390,38 @@
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L294" s="2"/>
       <c r="M294" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N294" s="2"/>
       <c r="O294" s="2">
-        <v>1284</v>
+        <v>3870</v>
       </c>
       <c r="P294" s="2"/>
       <c r="Q294"/>
     </row>
     <row r="295" spans="1:17" customHeight="1" ht="15">
       <c r="A295" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2">
-        <v>46.11</v>
+        <v>50</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
@@ -7506,18 +7429,18 @@
       </c>
       <c r="N295" s="2"/>
       <c r="O295" s="2">
-        <v>3854.4271</v>
+        <v>3870</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295"/>
     </row>
     <row r="296" spans="1:17" customHeight="1" ht="15">
       <c r="A296" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -7529,38 +7452,38 @@
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2">
-        <v>46.11</v>
+        <v>50</v>
       </c>
       <c r="L296" s="2"/>
       <c r="M296" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2">
-        <v>1480.131</v>
+        <v>3870</v>
       </c>
       <c r="P296" s="2"/>
       <c r="Q296"/>
     </row>
     <row r="297" spans="1:17" customHeight="1" ht="15">
       <c r="A297" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L297" s="2"/>
       <c r="M297" s="2">
@@ -7568,18 +7491,18 @@
       </c>
       <c r="N297" s="2"/>
       <c r="O297" s="2">
-        <v>1671.84</v>
+        <v>3870</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297"/>
     </row>
     <row r="298" spans="1:17" customHeight="1" ht="15">
       <c r="A298" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -7591,38 +7514,38 @@
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N298" s="2"/>
       <c r="O298" s="2">
-        <v>642</v>
+        <v>3870</v>
       </c>
       <c r="P298" s="2"/>
       <c r="Q298"/>
     </row>
     <row r="299" spans="1:17" customHeight="1" ht="15">
       <c r="A299" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L299" s="2"/>
       <c r="M299" s="2">
@@ -7630,18 +7553,18 @@
       </c>
       <c r="N299" s="2"/>
       <c r="O299" s="2">
-        <v>2507.76</v>
+        <v>3870</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299"/>
     </row>
     <row r="300" spans="1:17" customHeight="1" ht="15">
       <c r="A300" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -7653,15 +7576,15 @@
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L300" s="2"/>
       <c r="M300" s="2">
-        <v>32.1</v>
+        <v>77.4</v>
       </c>
       <c r="N300" s="2"/>
       <c r="O300" s="2">
-        <v>963</v>
+        <v>3870</v>
       </c>
       <c r="P300" s="2"/>
       <c r="Q300"/>
@@ -7673,15 +7596,23 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
+      <c r="G301" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
-      <c r="K301" s="2"/>
+      <c r="K301" s="2">
+        <v>400</v>
+      </c>
       <c r="L301" s="2"/>
-      <c r="M301" s="2"/>
+      <c r="M301" s="2">
+        <v>32.1</v>
+      </c>
       <c r="N301" s="2"/>
-      <c r="O301" s="2"/>
+      <c r="O301" s="2">
+        <v>12840</v>
+      </c>
       <c r="P301" s="2"/>
       <c r="Q301"/>
     </row>
@@ -7692,7 +7623,9 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
-      <c r="G302" s="2"/>
+      <c r="G302" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
@@ -7700,7 +7633,9 @@
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
-      <c r="O302" s="2"/>
+      <c r="O302" s="2">
+        <v>2477</v>
+      </c>
       <c r="P302" s="2"/>
       <c r="Q302"/>
     </row>
@@ -7744,32 +7679,32 @@
     </row>
     <row r="305" spans="1:17" customHeight="1" ht="15">
       <c r="A305" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B305" s="14"/>
       <c r="C305" s="14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D305" s="14"/>
       <c r="E305" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F305" s="14"/>
       <c r="G305" s="14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H305" s="14"/>
       <c r="I305" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J305" s="14"/>
       <c r="K305" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L305" s="14"/>
       <c r="M305" s="14"/>
       <c r="N305" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O305" s="14"/>
       <c r="P305" s="14"/>
@@ -7784,7 +7719,9 @@
       <c r="D306" s="10"/>
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
-      <c r="G306" s="10"/>
+      <c r="G306" s="10">
+        <v>400</v>
+      </c>
       <c r="H306" s="10"/>
       <c r="I306" s="10"/>
       <c r="J306" s="10"/>
@@ -7792,16 +7729,14 @@
       <c r="L306" s="10"/>
       <c r="M306" s="10"/>
       <c r="N306" s="10">
-        <v>15746.8381</v>
+        <v>46277</v>
       </c>
       <c r="O306" s="10"/>
       <c r="P306" s="10"/>
       <c r="Q306"/>
     </row>
     <row r="307" spans="1:17" customHeight="1" ht="25">
-      <c r="A307" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="A307" s="10"/>
       <c r="B307" s="10"/>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -7856,3635 +7791,6 @@
       <c r="O309"/>
       <c r="P309"/>
       <c r="Q309"/>
-    </row>
-    <row r="310" spans="1:17" customHeight="1" ht="15">
-      <c r="A310"/>
-      <c r="B310"/>
-      <c r="C310"/>
-      <c r="D310"/>
-      <c r="E310"/>
-      <c r="F310"/>
-      <c r="G310"/>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
-      <c r="K310"/>
-      <c r="L310"/>
-      <c r="M310"/>
-      <c r="N310"/>
-      <c r="O310"/>
-      <c r="P310"/>
-      <c r="Q310"/>
-    </row>
-    <row r="311" spans="1:17" customHeight="1" ht="15">
-      <c r="A311"/>
-      <c r="B311"/>
-      <c r="C311"/>
-      <c r="D311"/>
-      <c r="E311"/>
-      <c r="F311"/>
-      <c r="G311"/>
-      <c r="H311"/>
-      <c r="I311"/>
-      <c r="J311"/>
-      <c r="K311"/>
-      <c r="L311"/>
-      <c r="M311"/>
-      <c r="N311"/>
-      <c r="O311"/>
-      <c r="P311"/>
-      <c r="Q311"/>
-    </row>
-    <row r="312" spans="1:17" customHeight="1" ht="15">
-      <c r="A312"/>
-      <c r="B312"/>
-      <c r="C312"/>
-      <c r="D312"/>
-      <c r="E312"/>
-      <c r="F312"/>
-      <c r="G312"/>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
-      <c r="K312"/>
-      <c r="L312"/>
-      <c r="M312"/>
-      <c r="N312"/>
-      <c r="O312"/>
-      <c r="P312"/>
-      <c r="Q312"/>
-    </row>
-    <row r="313" spans="1:17" customHeight="1" ht="15">
-      <c r="A313"/>
-      <c r="B313"/>
-      <c r="C313"/>
-      <c r="D313"/>
-      <c r="E313"/>
-      <c r="F313"/>
-      <c r="G313"/>
-      <c r="H313"/>
-      <c r="I313"/>
-      <c r="J313"/>
-      <c r="K313"/>
-      <c r="L313"/>
-      <c r="M313"/>
-      <c r="N313"/>
-      <c r="O313"/>
-      <c r="P313"/>
-      <c r="Q313"/>
-    </row>
-    <row r="314" spans="1:17" customHeight="1" ht="15">
-      <c r="A314"/>
-      <c r="B314"/>
-      <c r="C314"/>
-      <c r="D314"/>
-      <c r="E314"/>
-      <c r="F314"/>
-      <c r="G314"/>
-      <c r="H314"/>
-      <c r="I314"/>
-      <c r="J314"/>
-      <c r="K314"/>
-      <c r="L314"/>
-      <c r="M314"/>
-      <c r="N314"/>
-      <c r="O314"/>
-      <c r="P314"/>
-      <c r="Q314"/>
-    </row>
-    <row r="315" spans="1:17" customHeight="1" ht="15">
-      <c r="A315"/>
-      <c r="B315"/>
-      <c r="C315"/>
-      <c r="D315"/>
-      <c r="E315"/>
-      <c r="F315"/>
-      <c r="G315"/>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
-      <c r="K315"/>
-      <c r="L315"/>
-      <c r="M315"/>
-      <c r="N315"/>
-      <c r="O315"/>
-      <c r="P315"/>
-      <c r="Q315"/>
-    </row>
-    <row r="316" spans="1:17" customHeight="1" ht="15">
-      <c r="A316"/>
-      <c r="B316"/>
-      <c r="C316"/>
-      <c r="D316"/>
-      <c r="E316"/>
-      <c r="F316"/>
-      <c r="G316"/>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
-      <c r="K316"/>
-      <c r="L316"/>
-      <c r="M316"/>
-      <c r="N316"/>
-      <c r="O316"/>
-      <c r="P316"/>
-      <c r="Q316"/>
-    </row>
-    <row r="317" spans="1:17" customHeight="1" ht="15">
-      <c r="A317"/>
-      <c r="B317"/>
-      <c r="C317"/>
-      <c r="D317"/>
-      <c r="E317"/>
-      <c r="F317"/>
-      <c r="G317"/>
-      <c r="H317"/>
-      <c r="I317"/>
-      <c r="J317"/>
-      <c r="K317"/>
-      <c r="L317"/>
-      <c r="M317"/>
-      <c r="N317"/>
-      <c r="O317"/>
-      <c r="P317"/>
-      <c r="Q317"/>
-    </row>
-    <row r="318" spans="1:17" customHeight="1" ht="15">
-      <c r="A318"/>
-      <c r="B318"/>
-      <c r="C318"/>
-      <c r="D318"/>
-      <c r="E318"/>
-      <c r="F318"/>
-      <c r="G318"/>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
-      <c r="K318"/>
-      <c r="L318"/>
-      <c r="M318"/>
-      <c r="N318"/>
-      <c r="O318"/>
-      <c r="P318"/>
-      <c r="Q318"/>
-    </row>
-    <row r="319" spans="1:17" customHeight="1" ht="15">
-      <c r="A319"/>
-      <c r="B319"/>
-      <c r="C319"/>
-      <c r="D319"/>
-      <c r="E319"/>
-      <c r="F319"/>
-      <c r="G319"/>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
-      <c r="K319"/>
-      <c r="L319"/>
-      <c r="M319"/>
-      <c r="N319"/>
-      <c r="O319"/>
-      <c r="P319"/>
-      <c r="Q319"/>
-    </row>
-    <row r="320" spans="1:17" customHeight="1" ht="15">
-      <c r="A320"/>
-      <c r="B320"/>
-      <c r="C320"/>
-      <c r="D320"/>
-      <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-      <c r="H320"/>
-      <c r="I320"/>
-      <c r="J320"/>
-      <c r="K320"/>
-      <c r="L320"/>
-      <c r="M320"/>
-      <c r="N320"/>
-      <c r="O320"/>
-      <c r="P320"/>
-      <c r="Q320"/>
-    </row>
-    <row r="321" spans="1:17" customHeight="1" ht="15">
-      <c r="A321"/>
-      <c r="B321"/>
-      <c r="C321"/>
-      <c r="D321"/>
-      <c r="E321"/>
-      <c r="F321"/>
-      <c r="G321"/>
-      <c r="H321"/>
-      <c r="I321"/>
-      <c r="J321"/>
-      <c r="K321"/>
-      <c r="L321"/>
-      <c r="M321"/>
-      <c r="N321"/>
-      <c r="O321"/>
-      <c r="P321"/>
-      <c r="Q321"/>
-    </row>
-    <row r="322" spans="1:17" customHeight="1" ht="15">
-      <c r="A322"/>
-      <c r="B322"/>
-      <c r="C322"/>
-      <c r="D322"/>
-      <c r="E322"/>
-      <c r="F322"/>
-      <c r="G322"/>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322"/>
-      <c r="L322"/>
-      <c r="M322"/>
-      <c r="N322"/>
-      <c r="O322"/>
-      <c r="P322"/>
-      <c r="Q322"/>
-    </row>
-    <row r="323" spans="1:17" customHeight="1" ht="15">
-      <c r="A323"/>
-      <c r="B323"/>
-      <c r="C323"/>
-      <c r="D323"/>
-      <c r="E323"/>
-      <c r="F323"/>
-      <c r="G323"/>
-      <c r="H323"/>
-      <c r="I323"/>
-      <c r="J323"/>
-      <c r="K323"/>
-      <c r="L323"/>
-      <c r="M323"/>
-      <c r="N323"/>
-      <c r="O323"/>
-      <c r="P323"/>
-      <c r="Q323"/>
-    </row>
-    <row r="324" spans="1:17" customHeight="1" ht="15">
-      <c r="A324"/>
-      <c r="B324"/>
-      <c r="C324"/>
-      <c r="D324"/>
-      <c r="E324"/>
-      <c r="F324"/>
-      <c r="G324"/>
-      <c r="H324"/>
-      <c r="I324"/>
-      <c r="J324"/>
-      <c r="K324"/>
-      <c r="L324"/>
-      <c r="M324"/>
-      <c r="N324"/>
-      <c r="O324"/>
-      <c r="P324"/>
-      <c r="Q324"/>
-    </row>
-    <row r="325" spans="1:17" customHeight="1" ht="15">
-      <c r="A325"/>
-      <c r="B325"/>
-      <c r="C325"/>
-      <c r="D325"/>
-      <c r="E325"/>
-      <c r="F325"/>
-      <c r="G325"/>
-      <c r="H325"/>
-      <c r="I325"/>
-      <c r="J325"/>
-      <c r="K325"/>
-      <c r="L325"/>
-      <c r="M325"/>
-      <c r="N325"/>
-      <c r="O325"/>
-      <c r="P325"/>
-      <c r="Q325"/>
-    </row>
-    <row r="326" spans="1:17" customHeight="1" ht="15">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
-      <c r="D326"/>
-      <c r="E326"/>
-      <c r="F326"/>
-      <c r="G326"/>
-      <c r="H326"/>
-      <c r="I326"/>
-      <c r="J326"/>
-      <c r="K326"/>
-      <c r="L326"/>
-      <c r="M326"/>
-      <c r="N326"/>
-      <c r="O326"/>
-      <c r="P326"/>
-      <c r="Q326"/>
-    </row>
-    <row r="327" spans="1:17" customHeight="1" ht="15">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327"/>
-      <c r="E327"/>
-      <c r="F327"/>
-      <c r="G327"/>
-      <c r="H327"/>
-      <c r="I327"/>
-      <c r="J327"/>
-      <c r="K327"/>
-      <c r="L327"/>
-      <c r="M327"/>
-      <c r="N327"/>
-      <c r="O327"/>
-      <c r="P327"/>
-      <c r="Q327"/>
-    </row>
-    <row r="328" spans="1:17" customHeight="1" ht="15">
-      <c r="A328"/>
-      <c r="B328"/>
-      <c r="C328"/>
-      <c r="D328"/>
-      <c r="E328"/>
-      <c r="F328"/>
-      <c r="G328"/>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
-      <c r="K328"/>
-      <c r="L328"/>
-      <c r="M328"/>
-      <c r="N328"/>
-      <c r="O328"/>
-      <c r="P328"/>
-      <c r="Q328"/>
-    </row>
-    <row r="329" spans="1:17" customHeight="1" ht="15">
-      <c r="A329"/>
-      <c r="B329"/>
-      <c r="C329"/>
-      <c r="D329"/>
-      <c r="E329"/>
-      <c r="F329"/>
-      <c r="G329"/>
-      <c r="H329"/>
-      <c r="I329"/>
-      <c r="J329"/>
-      <c r="K329"/>
-      <c r="L329"/>
-      <c r="M329"/>
-      <c r="N329"/>
-      <c r="O329"/>
-      <c r="P329"/>
-      <c r="Q329"/>
-    </row>
-    <row r="330" spans="1:17" customHeight="1" ht="15">
-      <c r="A330"/>
-      <c r="B330"/>
-      <c r="C330"/>
-      <c r="D330"/>
-      <c r="E330"/>
-      <c r="F330"/>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
-      <c r="K330"/>
-      <c r="L330"/>
-      <c r="M330"/>
-      <c r="N330"/>
-      <c r="O330"/>
-      <c r="P330"/>
-      <c r="Q330"/>
-    </row>
-    <row r="331" spans="1:17" customHeight="1" ht="15">
-      <c r="A331"/>
-      <c r="B331"/>
-      <c r="C331"/>
-      <c r="D331"/>
-      <c r="E331"/>
-      <c r="F331"/>
-      <c r="G331"/>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
-      <c r="K331"/>
-      <c r="L331"/>
-      <c r="M331"/>
-      <c r="N331"/>
-      <c r="O331"/>
-      <c r="P331"/>
-      <c r="Q331"/>
-    </row>
-    <row r="332" spans="1:17" customHeight="1" ht="15">
-      <c r="A332"/>
-      <c r="B332"/>
-      <c r="C332"/>
-      <c r="D332"/>
-      <c r="E332"/>
-      <c r="F332"/>
-      <c r="G332"/>
-      <c r="H332"/>
-      <c r="I332"/>
-      <c r="J332"/>
-      <c r="K332"/>
-      <c r="L332"/>
-      <c r="M332"/>
-      <c r="N332"/>
-      <c r="O332"/>
-      <c r="P332"/>
-      <c r="Q332"/>
-    </row>
-    <row r="333" spans="1:17" customHeight="1" ht="15">
-      <c r="A333"/>
-      <c r="B333"/>
-      <c r="C333"/>
-      <c r="D333"/>
-      <c r="E333"/>
-      <c r="F333"/>
-      <c r="G333"/>
-      <c r="H333"/>
-      <c r="I333"/>
-      <c r="J333"/>
-      <c r="K333"/>
-      <c r="L333"/>
-      <c r="M333"/>
-      <c r="N333"/>
-      <c r="O333"/>
-      <c r="P333"/>
-      <c r="Q333"/>
-    </row>
-    <row r="334" spans="1:17" customHeight="1" ht="15">
-      <c r="A334"/>
-      <c r="B334"/>
-      <c r="C334"/>
-      <c r="D334"/>
-      <c r="E334"/>
-      <c r="F334"/>
-      <c r="G334"/>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
-      <c r="K334"/>
-      <c r="L334"/>
-      <c r="M334"/>
-      <c r="N334"/>
-      <c r="O334"/>
-      <c r="P334"/>
-      <c r="Q334"/>
-    </row>
-    <row r="335" spans="1:17" customHeight="1" ht="15">
-      <c r="A335"/>
-      <c r="B335"/>
-      <c r="C335"/>
-      <c r="D335"/>
-      <c r="E335"/>
-      <c r="F335"/>
-      <c r="G335"/>
-      <c r="H335"/>
-      <c r="I335"/>
-      <c r="J335"/>
-      <c r="K335"/>
-      <c r="L335"/>
-      <c r="M335"/>
-      <c r="N335"/>
-      <c r="O335"/>
-      <c r="P335"/>
-      <c r="Q335"/>
-    </row>
-    <row r="336" spans="1:17" customHeight="1" ht="15">
-      <c r="A336"/>
-      <c r="B336"/>
-      <c r="C336"/>
-      <c r="D336"/>
-      <c r="E336"/>
-      <c r="F336"/>
-      <c r="G336"/>
-      <c r="H336"/>
-      <c r="I336"/>
-      <c r="J336"/>
-      <c r="K336"/>
-      <c r="L336"/>
-      <c r="M336"/>
-      <c r="N336"/>
-      <c r="O336"/>
-      <c r="P336"/>
-      <c r="Q336"/>
-    </row>
-    <row r="337" spans="1:17" customHeight="1" ht="15">
-      <c r="A337"/>
-      <c r="B337"/>
-      <c r="C337"/>
-      <c r="D337"/>
-      <c r="E337"/>
-      <c r="F337"/>
-      <c r="G337"/>
-      <c r="H337"/>
-      <c r="I337"/>
-      <c r="J337"/>
-      <c r="K337"/>
-      <c r="L337"/>
-      <c r="M337"/>
-      <c r="N337"/>
-      <c r="O337"/>
-      <c r="P337"/>
-      <c r="Q337"/>
-    </row>
-    <row r="338" spans="1:17" customHeight="1" ht="15">
-      <c r="A338"/>
-      <c r="B338"/>
-      <c r="C338"/>
-      <c r="D338"/>
-      <c r="E338"/>
-      <c r="F338"/>
-      <c r="G338"/>
-      <c r="H338"/>
-      <c r="I338"/>
-      <c r="J338"/>
-      <c r="K338"/>
-      <c r="L338"/>
-      <c r="M338"/>
-      <c r="N338"/>
-      <c r="O338"/>
-      <c r="P338"/>
-      <c r="Q338"/>
-    </row>
-    <row r="339" spans="1:17" customHeight="1" ht="15">
-      <c r="A339"/>
-      <c r="B339"/>
-      <c r="C339"/>
-      <c r="D339"/>
-      <c r="E339"/>
-      <c r="F339"/>
-      <c r="G339"/>
-      <c r="H339"/>
-      <c r="I339"/>
-      <c r="J339"/>
-      <c r="K339"/>
-      <c r="L339"/>
-      <c r="M339"/>
-      <c r="N339"/>
-      <c r="O339"/>
-      <c r="P339"/>
-      <c r="Q339"/>
-    </row>
-    <row r="340" spans="1:17" customHeight="1" ht="15">
-      <c r="A340"/>
-      <c r="B340"/>
-      <c r="C340"/>
-      <c r="D340"/>
-      <c r="E340"/>
-      <c r="F340"/>
-      <c r="G340"/>
-      <c r="H340"/>
-      <c r="I340"/>
-      <c r="J340"/>
-      <c r="K340"/>
-      <c r="L340"/>
-      <c r="M340"/>
-      <c r="N340"/>
-      <c r="O340"/>
-      <c r="P340"/>
-      <c r="Q340"/>
-    </row>
-    <row r="341" spans="1:17" customHeight="1" ht="15">
-      <c r="A341"/>
-      <c r="B341"/>
-      <c r="C341"/>
-      <c r="D341"/>
-      <c r="E341"/>
-      <c r="F341"/>
-      <c r="G341"/>
-      <c r="H341"/>
-      <c r="I341"/>
-      <c r="J341"/>
-      <c r="K341"/>
-      <c r="L341"/>
-      <c r="M341"/>
-      <c r="N341"/>
-      <c r="O341"/>
-      <c r="P341"/>
-      <c r="Q341"/>
-    </row>
-    <row r="342" spans="1:17" customHeight="1" ht="15">
-      <c r="A342"/>
-      <c r="B342"/>
-      <c r="C342"/>
-      <c r="D342"/>
-      <c r="E342"/>
-      <c r="F342"/>
-      <c r="G342"/>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
-      <c r="K342"/>
-      <c r="L342"/>
-      <c r="M342"/>
-      <c r="N342"/>
-      <c r="O342"/>
-      <c r="P342"/>
-      <c r="Q342"/>
-    </row>
-    <row r="343" spans="1:17" customHeight="1" ht="15">
-      <c r="A343"/>
-      <c r="B343"/>
-      <c r="C343"/>
-      <c r="D343"/>
-      <c r="E343"/>
-      <c r="F343"/>
-      <c r="G343"/>
-      <c r="H343"/>
-      <c r="I343"/>
-      <c r="J343"/>
-      <c r="K343"/>
-      <c r="L343"/>
-      <c r="M343"/>
-      <c r="N343"/>
-      <c r="O343"/>
-      <c r="P343"/>
-      <c r="Q343"/>
-    </row>
-    <row r="344" spans="1:17" customHeight="1" ht="15">
-      <c r="A344"/>
-      <c r="B344"/>
-      <c r="C344"/>
-      <c r="D344"/>
-      <c r="E344"/>
-      <c r="F344"/>
-      <c r="G344"/>
-      <c r="H344"/>
-      <c r="I344"/>
-      <c r="J344"/>
-      <c r="K344"/>
-      <c r="L344"/>
-      <c r="M344"/>
-      <c r="N344"/>
-      <c r="O344"/>
-      <c r="P344"/>
-      <c r="Q344"/>
-    </row>
-    <row r="345" spans="1:17" customHeight="1" ht="15">
-      <c r="A345"/>
-      <c r="B345"/>
-      <c r="C345"/>
-      <c r="D345"/>
-      <c r="E345"/>
-      <c r="F345"/>
-      <c r="G345"/>
-      <c r="H345"/>
-      <c r="I345"/>
-      <c r="J345"/>
-      <c r="K345"/>
-      <c r="L345"/>
-      <c r="M345"/>
-      <c r="N345"/>
-      <c r="O345"/>
-      <c r="P345"/>
-      <c r="Q345"/>
-    </row>
-    <row r="346" spans="1:17" customHeight="1" ht="15">
-      <c r="A346"/>
-      <c r="B346"/>
-      <c r="C346"/>
-      <c r="D346"/>
-      <c r="E346"/>
-      <c r="F346"/>
-      <c r="G346"/>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
-      <c r="K346"/>
-      <c r="L346"/>
-      <c r="M346"/>
-      <c r="N346"/>
-      <c r="O346"/>
-      <c r="P346"/>
-      <c r="Q346"/>
-    </row>
-    <row r="347" spans="1:17" customHeight="1" ht="15">
-      <c r="A347"/>
-      <c r="B347"/>
-      <c r="C347"/>
-      <c r="D347"/>
-      <c r="E347"/>
-      <c r="F347"/>
-      <c r="G347"/>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
-      <c r="K347"/>
-      <c r="L347"/>
-      <c r="M347"/>
-      <c r="N347"/>
-      <c r="O347"/>
-      <c r="P347"/>
-      <c r="Q347"/>
-    </row>
-    <row r="348" spans="1:17" customHeight="1" ht="15">
-      <c r="A348"/>
-      <c r="B348"/>
-      <c r="C348"/>
-      <c r="D348"/>
-      <c r="E348"/>
-      <c r="F348"/>
-      <c r="G348"/>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
-      <c r="K348"/>
-      <c r="L348"/>
-      <c r="M348"/>
-      <c r="N348"/>
-      <c r="O348"/>
-      <c r="P348"/>
-      <c r="Q348"/>
-    </row>
-    <row r="349" spans="1:17" customHeight="1" ht="15">
-      <c r="A349"/>
-      <c r="B349"/>
-      <c r="C349"/>
-      <c r="D349"/>
-      <c r="E349"/>
-      <c r="F349"/>
-      <c r="G349"/>
-      <c r="H349"/>
-      <c r="I349"/>
-      <c r="J349"/>
-      <c r="K349"/>
-      <c r="L349"/>
-      <c r="M349"/>
-      <c r="N349"/>
-      <c r="O349"/>
-      <c r="P349"/>
-      <c r="Q349"/>
-    </row>
-    <row r="350" spans="1:17" customHeight="1" ht="15">
-      <c r="A350"/>
-      <c r="B350"/>
-      <c r="C350"/>
-      <c r="D350"/>
-      <c r="E350"/>
-      <c r="F350"/>
-      <c r="G350"/>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
-      <c r="K350"/>
-      <c r="L350"/>
-      <c r="M350"/>
-      <c r="N350"/>
-      <c r="O350"/>
-      <c r="P350"/>
-      <c r="Q350"/>
-    </row>
-    <row r="351" spans="1:17" customHeight="1" ht="15">
-      <c r="A351"/>
-      <c r="B351"/>
-      <c r="C351"/>
-      <c r="D351"/>
-      <c r="E351"/>
-      <c r="F351"/>
-      <c r="G351"/>
-      <c r="H351"/>
-      <c r="I351"/>
-      <c r="J351"/>
-      <c r="K351"/>
-      <c r="L351"/>
-      <c r="M351"/>
-      <c r="N351"/>
-      <c r="O351"/>
-      <c r="P351"/>
-      <c r="Q351"/>
-    </row>
-    <row r="352" spans="1:17" customHeight="1" ht="15">
-      <c r="A352"/>
-      <c r="B352"/>
-      <c r="C352"/>
-      <c r="D352"/>
-      <c r="E352"/>
-      <c r="F352"/>
-      <c r="G352"/>
-      <c r="H352"/>
-      <c r="I352"/>
-      <c r="J352"/>
-      <c r="K352"/>
-      <c r="L352"/>
-      <c r="M352"/>
-      <c r="N352"/>
-      <c r="O352"/>
-      <c r="P352"/>
-      <c r="Q352"/>
-    </row>
-    <row r="353" spans="1:17" customHeight="1" ht="15">
-      <c r="A353"/>
-      <c r="B353"/>
-      <c r="C353"/>
-      <c r="D353"/>
-      <c r="E353"/>
-      <c r="F353"/>
-      <c r="G353"/>
-      <c r="H353"/>
-      <c r="I353"/>
-      <c r="J353"/>
-      <c r="K353"/>
-      <c r="L353"/>
-      <c r="M353"/>
-      <c r="N353"/>
-      <c r="O353"/>
-      <c r="P353"/>
-      <c r="Q353"/>
-    </row>
-    <row r="354" spans="1:17" customHeight="1" ht="15">
-      <c r="A354"/>
-      <c r="B354"/>
-      <c r="C354"/>
-      <c r="D354"/>
-      <c r="E354"/>
-      <c r="F354"/>
-      <c r="G354"/>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
-      <c r="K354"/>
-      <c r="L354"/>
-      <c r="M354"/>
-      <c r="N354"/>
-      <c r="O354"/>
-      <c r="P354"/>
-      <c r="Q354"/>
-    </row>
-    <row r="355" spans="1:17" customHeight="1" ht="15">
-      <c r="A355"/>
-      <c r="B355"/>
-      <c r="C355"/>
-      <c r="D355"/>
-      <c r="E355"/>
-      <c r="F355"/>
-      <c r="G355"/>
-      <c r="H355"/>
-      <c r="I355"/>
-      <c r="J355"/>
-      <c r="K355"/>
-      <c r="L355"/>
-      <c r="M355"/>
-      <c r="N355"/>
-      <c r="O355"/>
-      <c r="P355"/>
-      <c r="Q355"/>
-    </row>
-    <row r="356" spans="1:17" customHeight="1" ht="15">
-      <c r="A356"/>
-      <c r="B356"/>
-      <c r="C356"/>
-      <c r="D356"/>
-      <c r="E356"/>
-      <c r="F356"/>
-      <c r="G356"/>
-      <c r="H356"/>
-      <c r="I356"/>
-      <c r="J356"/>
-      <c r="K356"/>
-      <c r="L356"/>
-      <c r="M356"/>
-      <c r="N356"/>
-      <c r="O356"/>
-      <c r="P356"/>
-      <c r="Q356"/>
-    </row>
-    <row r="357" spans="1:17" customHeight="1" ht="15">
-      <c r="A357"/>
-      <c r="B357"/>
-      <c r="C357"/>
-      <c r="D357"/>
-      <c r="E357"/>
-      <c r="F357"/>
-      <c r="G357"/>
-      <c r="H357"/>
-      <c r="I357"/>
-      <c r="J357"/>
-      <c r="K357"/>
-      <c r="L357"/>
-      <c r="M357"/>
-      <c r="N357"/>
-      <c r="O357"/>
-      <c r="P357"/>
-      <c r="Q357"/>
-    </row>
-    <row r="358" spans="1:17" customHeight="1" ht="15">
-      <c r="A358"/>
-      <c r="B358"/>
-      <c r="C358"/>
-      <c r="D358"/>
-      <c r="E358"/>
-      <c r="F358"/>
-      <c r="G358"/>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
-      <c r="K358"/>
-      <c r="L358"/>
-      <c r="M358"/>
-      <c r="N358"/>
-      <c r="O358"/>
-      <c r="P358"/>
-      <c r="Q358"/>
-    </row>
-    <row r="359" spans="1:17" customHeight="1" ht="15">
-      <c r="A359"/>
-      <c r="B359"/>
-      <c r="C359"/>
-      <c r="D359"/>
-      <c r="E359"/>
-      <c r="F359"/>
-      <c r="G359"/>
-      <c r="H359"/>
-      <c r="I359"/>
-      <c r="J359"/>
-      <c r="K359"/>
-      <c r="L359"/>
-      <c r="M359"/>
-      <c r="N359"/>
-      <c r="O359"/>
-      <c r="P359"/>
-      <c r="Q359"/>
-    </row>
-    <row r="360" spans="1:17" customHeight="1" ht="15">
-      <c r="A360"/>
-      <c r="B360"/>
-      <c r="C360"/>
-      <c r="D360"/>
-      <c r="E360"/>
-      <c r="F360"/>
-      <c r="G360"/>
-      <c r="H360"/>
-      <c r="I360"/>
-      <c r="J360"/>
-      <c r="K360"/>
-      <c r="L360"/>
-      <c r="M360"/>
-      <c r="N360"/>
-      <c r="O360"/>
-      <c r="P360"/>
-      <c r="Q360"/>
-    </row>
-    <row r="361" spans="1:17" customHeight="1" ht="15">
-      <c r="A361"/>
-      <c r="B361"/>
-      <c r="C361"/>
-      <c r="D361"/>
-      <c r="E361"/>
-      <c r="F361"/>
-      <c r="G361"/>
-      <c r="H361"/>
-      <c r="I361"/>
-      <c r="J361"/>
-      <c r="K361"/>
-      <c r="L361"/>
-      <c r="M361"/>
-      <c r="N361"/>
-      <c r="O361"/>
-      <c r="P361"/>
-      <c r="Q361"/>
-    </row>
-    <row r="362" spans="1:17" customHeight="1" ht="15">
-      <c r="A362"/>
-      <c r="B362"/>
-      <c r="C362"/>
-      <c r="D362"/>
-      <c r="E362"/>
-      <c r="F362"/>
-      <c r="G362"/>
-      <c r="H362"/>
-      <c r="I362"/>
-      <c r="J362"/>
-      <c r="K362"/>
-      <c r="L362"/>
-      <c r="M362"/>
-      <c r="N362"/>
-      <c r="O362"/>
-      <c r="P362"/>
-      <c r="Q362"/>
-    </row>
-    <row r="363" spans="1:17" customHeight="1" ht="15">
-      <c r="A363"/>
-      <c r="B363"/>
-      <c r="C363"/>
-      <c r="D363"/>
-      <c r="E363"/>
-      <c r="F363"/>
-      <c r="G363"/>
-      <c r="H363"/>
-      <c r="I363"/>
-      <c r="J363"/>
-      <c r="K363"/>
-      <c r="L363"/>
-      <c r="M363"/>
-      <c r="N363"/>
-      <c r="O363"/>
-      <c r="P363"/>
-      <c r="Q363"/>
-    </row>
-    <row r="364" spans="1:17" customHeight="1" ht="15">
-      <c r="A364"/>
-      <c r="B364"/>
-      <c r="C364"/>
-      <c r="D364"/>
-      <c r="E364"/>
-      <c r="F364"/>
-      <c r="G364"/>
-      <c r="H364"/>
-      <c r="I364"/>
-      <c r="J364"/>
-      <c r="K364"/>
-      <c r="L364"/>
-      <c r="M364"/>
-      <c r="N364"/>
-      <c r="O364"/>
-      <c r="P364"/>
-      <c r="Q364"/>
-    </row>
-    <row r="365" spans="1:17" customHeight="1" ht="15">
-      <c r="A365"/>
-      <c r="B365"/>
-      <c r="C365"/>
-      <c r="D365"/>
-      <c r="E365"/>
-      <c r="F365"/>
-      <c r="G365"/>
-      <c r="H365"/>
-      <c r="I365"/>
-      <c r="J365"/>
-      <c r="K365"/>
-      <c r="L365"/>
-      <c r="M365"/>
-      <c r="N365"/>
-      <c r="O365"/>
-      <c r="P365"/>
-      <c r="Q365"/>
-    </row>
-    <row r="366" spans="1:17" customHeight="1" ht="15">
-      <c r="A366"/>
-      <c r="B366"/>
-      <c r="C366"/>
-      <c r="D366"/>
-      <c r="E366"/>
-      <c r="F366"/>
-      <c r="G366"/>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
-      <c r="K366"/>
-      <c r="L366"/>
-      <c r="M366"/>
-      <c r="N366"/>
-      <c r="O366"/>
-      <c r="P366"/>
-      <c r="Q366"/>
-    </row>
-    <row r="367" spans="1:17" customHeight="1" ht="15">
-      <c r="A367"/>
-      <c r="B367"/>
-      <c r="C367"/>
-      <c r="D367"/>
-      <c r="E367"/>
-      <c r="F367"/>
-      <c r="G367"/>
-      <c r="H367"/>
-      <c r="I367"/>
-      <c r="J367"/>
-      <c r="K367"/>
-      <c r="L367"/>
-      <c r="M367"/>
-      <c r="N367"/>
-      <c r="O367"/>
-      <c r="P367"/>
-      <c r="Q367"/>
-    </row>
-    <row r="368" spans="1:17" customHeight="1" ht="15">
-      <c r="A368"/>
-      <c r="B368"/>
-      <c r="C368"/>
-      <c r="D368"/>
-      <c r="E368"/>
-      <c r="F368"/>
-      <c r="G368"/>
-      <c r="H368"/>
-      <c r="I368"/>
-      <c r="J368"/>
-      <c r="K368"/>
-      <c r="L368"/>
-      <c r="M368"/>
-      <c r="N368"/>
-      <c r="O368"/>
-      <c r="P368"/>
-      <c r="Q368"/>
-    </row>
-    <row r="369" spans="1:17" customHeight="1" ht="15">
-      <c r="A369"/>
-      <c r="B369"/>
-      <c r="C369"/>
-      <c r="D369"/>
-      <c r="E369"/>
-      <c r="F369"/>
-      <c r="G369"/>
-      <c r="H369"/>
-      <c r="I369"/>
-      <c r="J369"/>
-      <c r="K369"/>
-      <c r="L369"/>
-      <c r="M369"/>
-      <c r="N369"/>
-      <c r="O369"/>
-      <c r="P369"/>
-      <c r="Q369"/>
-    </row>
-    <row r="370" spans="1:17" customHeight="1" ht="15">
-      <c r="A370"/>
-      <c r="B370"/>
-      <c r="C370"/>
-      <c r="D370"/>
-      <c r="E370"/>
-      <c r="F370"/>
-      <c r="G370"/>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
-      <c r="K370"/>
-      <c r="L370"/>
-      <c r="M370"/>
-      <c r="N370"/>
-      <c r="O370"/>
-      <c r="P370"/>
-      <c r="Q370"/>
-    </row>
-    <row r="371" spans="1:17" customHeight="1" ht="15">
-      <c r="A371"/>
-      <c r="B371"/>
-      <c r="C371"/>
-      <c r="D371"/>
-      <c r="E371"/>
-      <c r="F371"/>
-      <c r="G371"/>
-      <c r="H371"/>
-      <c r="I371"/>
-      <c r="J371"/>
-      <c r="K371"/>
-      <c r="L371"/>
-      <c r="M371"/>
-      <c r="N371"/>
-      <c r="O371"/>
-      <c r="P371"/>
-      <c r="Q371"/>
-    </row>
-    <row r="372" spans="1:17" customHeight="1" ht="15">
-      <c r="A372"/>
-      <c r="B372"/>
-      <c r="C372"/>
-      <c r="D372"/>
-      <c r="E372"/>
-      <c r="F372"/>
-      <c r="G372"/>
-      <c r="H372"/>
-      <c r="I372"/>
-      <c r="J372"/>
-      <c r="K372"/>
-      <c r="L372"/>
-      <c r="M372"/>
-      <c r="N372"/>
-      <c r="O372"/>
-      <c r="P372"/>
-      <c r="Q372"/>
-    </row>
-    <row r="373" spans="1:17" customHeight="1" ht="15">
-      <c r="A373"/>
-      <c r="B373"/>
-      <c r="C373"/>
-      <c r="D373"/>
-      <c r="E373"/>
-      <c r="F373"/>
-      <c r="G373"/>
-      <c r="H373"/>
-      <c r="I373"/>
-      <c r="J373"/>
-      <c r="K373"/>
-      <c r="L373"/>
-      <c r="M373"/>
-      <c r="N373"/>
-      <c r="O373"/>
-      <c r="P373"/>
-      <c r="Q373"/>
-    </row>
-    <row r="374" spans="1:17" customHeight="1" ht="15">
-      <c r="A374"/>
-      <c r="B374"/>
-      <c r="C374"/>
-      <c r="D374"/>
-      <c r="E374"/>
-      <c r="F374"/>
-      <c r="G374"/>
-      <c r="H374"/>
-      <c r="I374"/>
-      <c r="J374"/>
-      <c r="K374"/>
-      <c r="L374"/>
-      <c r="M374"/>
-      <c r="N374"/>
-      <c r="O374"/>
-      <c r="P374"/>
-      <c r="Q374"/>
-    </row>
-    <row r="375" spans="1:17" customHeight="1" ht="15">
-      <c r="A375"/>
-      <c r="B375"/>
-      <c r="C375"/>
-      <c r="D375"/>
-      <c r="E375"/>
-      <c r="F375"/>
-      <c r="G375"/>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
-      <c r="K375"/>
-      <c r="L375"/>
-      <c r="M375"/>
-      <c r="N375"/>
-      <c r="O375"/>
-      <c r="P375"/>
-      <c r="Q375"/>
-    </row>
-    <row r="376" spans="1:17" customHeight="1" ht="15">
-      <c r="A376"/>
-      <c r="B376"/>
-      <c r="C376"/>
-      <c r="D376"/>
-      <c r="E376"/>
-      <c r="F376"/>
-      <c r="G376"/>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
-      <c r="K376"/>
-      <c r="L376"/>
-      <c r="M376"/>
-      <c r="N376"/>
-      <c r="O376"/>
-      <c r="P376"/>
-      <c r="Q376"/>
-    </row>
-    <row r="377" spans="1:17" customHeight="1" ht="15">
-      <c r="A377"/>
-      <c r="B377"/>
-      <c r="C377"/>
-      <c r="D377"/>
-      <c r="E377"/>
-      <c r="F377"/>
-      <c r="G377"/>
-      <c r="H377"/>
-      <c r="I377"/>
-      <c r="J377"/>
-      <c r="K377"/>
-      <c r="L377"/>
-      <c r="M377"/>
-      <c r="N377"/>
-      <c r="O377"/>
-      <c r="P377"/>
-      <c r="Q377"/>
-    </row>
-    <row r="378" spans="1:17" customHeight="1" ht="15">
-      <c r="A378"/>
-      <c r="B378"/>
-      <c r="C378"/>
-      <c r="D378"/>
-      <c r="E378"/>
-      <c r="F378"/>
-      <c r="G378"/>
-      <c r="H378"/>
-      <c r="I378"/>
-      <c r="J378"/>
-      <c r="K378"/>
-      <c r="L378"/>
-      <c r="M378"/>
-      <c r="N378"/>
-      <c r="O378"/>
-      <c r="P378"/>
-      <c r="Q378"/>
-    </row>
-    <row r="379" spans="1:17" customHeight="1" ht="15">
-      <c r="A379"/>
-      <c r="B379"/>
-      <c r="C379"/>
-      <c r="D379"/>
-      <c r="E379"/>
-      <c r="F379"/>
-      <c r="G379"/>
-      <c r="H379"/>
-      <c r="I379"/>
-      <c r="J379"/>
-      <c r="K379"/>
-      <c r="L379"/>
-      <c r="M379"/>
-      <c r="N379"/>
-      <c r="O379"/>
-      <c r="P379"/>
-      <c r="Q379"/>
-    </row>
-    <row r="380" spans="1:17" customHeight="1" ht="15">
-      <c r="A380"/>
-      <c r="B380"/>
-      <c r="C380"/>
-      <c r="D380"/>
-      <c r="E380"/>
-      <c r="F380"/>
-      <c r="G380"/>
-      <c r="H380"/>
-      <c r="I380"/>
-      <c r="J380"/>
-      <c r="K380"/>
-      <c r="L380"/>
-      <c r="M380"/>
-      <c r="N380"/>
-      <c r="O380"/>
-      <c r="P380"/>
-      <c r="Q380"/>
-    </row>
-    <row r="381" spans="1:17" customHeight="1" ht="15">
-      <c r="A381"/>
-      <c r="B381"/>
-      <c r="C381"/>
-      <c r="D381"/>
-      <c r="E381"/>
-      <c r="F381"/>
-      <c r="G381"/>
-      <c r="H381"/>
-      <c r="I381"/>
-      <c r="J381"/>
-      <c r="K381"/>
-      <c r="L381"/>
-      <c r="M381"/>
-      <c r="N381"/>
-      <c r="O381"/>
-      <c r="P381"/>
-      <c r="Q381"/>
-    </row>
-    <row r="382" spans="1:17" customHeight="1" ht="15">
-      <c r="A382"/>
-      <c r="B382"/>
-      <c r="C382"/>
-      <c r="D382"/>
-      <c r="E382"/>
-      <c r="F382"/>
-      <c r="G382"/>
-      <c r="H382"/>
-      <c r="I382"/>
-      <c r="J382"/>
-      <c r="K382"/>
-      <c r="L382"/>
-      <c r="M382"/>
-      <c r="N382"/>
-      <c r="O382"/>
-      <c r="P382"/>
-      <c r="Q382"/>
-    </row>
-    <row r="383" spans="1:17" customHeight="1" ht="15">
-      <c r="A383"/>
-      <c r="B383"/>
-      <c r="C383"/>
-      <c r="D383"/>
-      <c r="E383"/>
-      <c r="F383"/>
-      <c r="G383"/>
-      <c r="H383"/>
-      <c r="I383"/>
-      <c r="J383"/>
-      <c r="K383"/>
-      <c r="L383"/>
-      <c r="M383"/>
-      <c r="N383"/>
-      <c r="O383"/>
-      <c r="P383"/>
-      <c r="Q383"/>
-    </row>
-    <row r="384" spans="1:17" customHeight="1" ht="15">
-      <c r="A384"/>
-      <c r="B384"/>
-      <c r="C384"/>
-      <c r="D384"/>
-      <c r="E384"/>
-      <c r="F384"/>
-      <c r="G384"/>
-      <c r="H384"/>
-      <c r="I384"/>
-      <c r="J384"/>
-      <c r="K384"/>
-      <c r="L384"/>
-      <c r="M384"/>
-      <c r="N384"/>
-      <c r="O384"/>
-      <c r="P384"/>
-      <c r="Q384"/>
-    </row>
-    <row r="385" spans="1:17" customHeight="1" ht="15">
-      <c r="A385"/>
-      <c r="B385"/>
-      <c r="C385"/>
-      <c r="D385"/>
-      <c r="E385"/>
-      <c r="F385"/>
-      <c r="G385"/>
-      <c r="H385"/>
-      <c r="I385"/>
-      <c r="J385"/>
-      <c r="K385"/>
-      <c r="L385"/>
-      <c r="M385"/>
-      <c r="N385"/>
-      <c r="O385"/>
-      <c r="P385"/>
-      <c r="Q385"/>
-    </row>
-    <row r="386" spans="1:17" customHeight="1" ht="15">
-      <c r="A386"/>
-      <c r="B386"/>
-      <c r="C386"/>
-      <c r="D386"/>
-      <c r="E386"/>
-      <c r="F386"/>
-      <c r="G386"/>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
-      <c r="K386"/>
-      <c r="L386"/>
-      <c r="M386"/>
-      <c r="N386"/>
-      <c r="O386"/>
-      <c r="P386"/>
-      <c r="Q386"/>
-    </row>
-    <row r="387" spans="1:17" customHeight="1" ht="15">
-      <c r="A387"/>
-      <c r="B387"/>
-      <c r="C387"/>
-      <c r="D387"/>
-      <c r="E387"/>
-      <c r="F387"/>
-      <c r="G387"/>
-      <c r="H387"/>
-      <c r="I387"/>
-      <c r="J387"/>
-      <c r="K387"/>
-      <c r="L387"/>
-      <c r="M387"/>
-      <c r="N387"/>
-      <c r="O387"/>
-      <c r="P387"/>
-      <c r="Q387"/>
-    </row>
-    <row r="388" spans="1:17" customHeight="1" ht="15">
-      <c r="A388"/>
-      <c r="B388"/>
-      <c r="C388"/>
-      <c r="D388"/>
-      <c r="E388"/>
-      <c r="F388"/>
-      <c r="G388"/>
-      <c r="H388"/>
-      <c r="I388"/>
-      <c r="J388"/>
-      <c r="K388"/>
-      <c r="L388"/>
-      <c r="M388"/>
-      <c r="N388"/>
-      <c r="O388"/>
-      <c r="P388"/>
-      <c r="Q388"/>
-    </row>
-    <row r="389" spans="1:17" customHeight="1" ht="15">
-      <c r="A389"/>
-      <c r="B389"/>
-      <c r="C389"/>
-      <c r="D389"/>
-      <c r="E389"/>
-      <c r="F389"/>
-      <c r="G389"/>
-      <c r="H389"/>
-      <c r="I389"/>
-      <c r="J389"/>
-      <c r="K389"/>
-      <c r="L389"/>
-      <c r="M389"/>
-      <c r="N389"/>
-      <c r="O389"/>
-      <c r="P389"/>
-      <c r="Q389"/>
-    </row>
-    <row r="390" spans="1:17" customHeight="1" ht="15">
-      <c r="A390"/>
-      <c r="B390"/>
-      <c r="C390"/>
-      <c r="D390"/>
-      <c r="E390"/>
-      <c r="F390"/>
-      <c r="G390"/>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
-      <c r="K390"/>
-      <c r="L390"/>
-      <c r="M390"/>
-      <c r="N390"/>
-      <c r="O390"/>
-      <c r="P390"/>
-      <c r="Q390"/>
-    </row>
-    <row r="391" spans="1:17" customHeight="1" ht="15">
-      <c r="A391"/>
-      <c r="B391"/>
-      <c r="C391"/>
-      <c r="D391"/>
-      <c r="E391"/>
-      <c r="F391"/>
-      <c r="G391"/>
-      <c r="H391"/>
-      <c r="I391"/>
-      <c r="J391"/>
-      <c r="K391"/>
-      <c r="L391"/>
-      <c r="M391"/>
-      <c r="N391"/>
-      <c r="O391"/>
-      <c r="P391"/>
-      <c r="Q391"/>
-    </row>
-    <row r="392" spans="1:17" customHeight="1" ht="15">
-      <c r="A392"/>
-      <c r="B392"/>
-      <c r="C392"/>
-      <c r="D392"/>
-      <c r="E392"/>
-      <c r="F392"/>
-      <c r="G392"/>
-      <c r="H392"/>
-      <c r="I392"/>
-      <c r="J392"/>
-      <c r="K392"/>
-      <c r="L392"/>
-      <c r="M392"/>
-      <c r="N392"/>
-      <c r="O392"/>
-      <c r="P392"/>
-      <c r="Q392"/>
-    </row>
-    <row r="393" spans="1:17" customHeight="1" ht="15">
-      <c r="A393"/>
-      <c r="B393"/>
-      <c r="C393"/>
-      <c r="D393"/>
-      <c r="E393"/>
-      <c r="F393"/>
-      <c r="G393"/>
-      <c r="H393"/>
-      <c r="I393"/>
-      <c r="J393"/>
-      <c r="K393"/>
-      <c r="L393"/>
-      <c r="M393"/>
-      <c r="N393"/>
-      <c r="O393"/>
-      <c r="P393"/>
-      <c r="Q393"/>
-    </row>
-    <row r="394" spans="1:17" customHeight="1" ht="15">
-      <c r="A394"/>
-      <c r="B394"/>
-      <c r="C394"/>
-      <c r="D394"/>
-      <c r="E394"/>
-      <c r="F394"/>
-      <c r="G394"/>
-      <c r="H394"/>
-      <c r="I394"/>
-      <c r="J394"/>
-      <c r="K394"/>
-      <c r="L394"/>
-      <c r="M394"/>
-      <c r="N394"/>
-      <c r="O394"/>
-      <c r="P394"/>
-      <c r="Q394"/>
-    </row>
-    <row r="395" spans="1:17" customHeight="1" ht="15">
-      <c r="A395"/>
-      <c r="B395"/>
-      <c r="C395"/>
-      <c r="D395"/>
-      <c r="E395"/>
-      <c r="F395"/>
-      <c r="G395"/>
-      <c r="H395"/>
-      <c r="I395"/>
-      <c r="J395"/>
-      <c r="K395"/>
-      <c r="L395"/>
-      <c r="M395"/>
-      <c r="N395"/>
-      <c r="O395"/>
-      <c r="P395"/>
-      <c r="Q395"/>
-    </row>
-    <row r="396" spans="1:17" customHeight="1" ht="15">
-      <c r="A396"/>
-      <c r="B396"/>
-      <c r="C396"/>
-      <c r="D396"/>
-      <c r="E396"/>
-      <c r="F396"/>
-      <c r="G396"/>
-      <c r="H396"/>
-      <c r="I396"/>
-      <c r="J396"/>
-      <c r="K396"/>
-      <c r="L396"/>
-      <c r="M396"/>
-      <c r="N396"/>
-      <c r="O396"/>
-      <c r="P396"/>
-      <c r="Q396"/>
-    </row>
-    <row r="397" spans="1:17" customHeight="1" ht="15">
-      <c r="A397"/>
-      <c r="B397"/>
-      <c r="C397"/>
-      <c r="D397"/>
-      <c r="E397"/>
-      <c r="F397"/>
-      <c r="G397"/>
-      <c r="H397"/>
-      <c r="I397"/>
-      <c r="J397"/>
-      <c r="K397"/>
-      <c r="L397"/>
-      <c r="M397"/>
-      <c r="N397"/>
-      <c r="O397"/>
-      <c r="P397"/>
-      <c r="Q397"/>
-    </row>
-    <row r="398" spans="1:17" customHeight="1" ht="15">
-      <c r="A398"/>
-      <c r="B398"/>
-      <c r="C398"/>
-      <c r="D398"/>
-      <c r="E398"/>
-      <c r="F398"/>
-      <c r="G398"/>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
-      <c r="K398"/>
-      <c r="L398"/>
-      <c r="M398"/>
-      <c r="N398"/>
-      <c r="O398"/>
-      <c r="P398"/>
-      <c r="Q398"/>
-    </row>
-    <row r="399" spans="1:17" customHeight="1" ht="15">
-      <c r="A399"/>
-      <c r="B399"/>
-      <c r="C399"/>
-      <c r="D399"/>
-      <c r="E399"/>
-      <c r="F399"/>
-      <c r="G399"/>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
-      <c r="K399"/>
-      <c r="L399"/>
-      <c r="M399"/>
-      <c r="N399"/>
-      <c r="O399"/>
-      <c r="P399"/>
-      <c r="Q399"/>
-    </row>
-    <row r="400" spans="1:17" customHeight="1" ht="15">
-      <c r="A400"/>
-      <c r="B400"/>
-      <c r="C400"/>
-      <c r="D400"/>
-      <c r="E400"/>
-      <c r="F400"/>
-      <c r="G400"/>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
-      <c r="K400"/>
-      <c r="L400"/>
-      <c r="M400"/>
-      <c r="N400"/>
-      <c r="O400"/>
-      <c r="P400"/>
-      <c r="Q400"/>
-    </row>
-    <row r="401" spans="1:17" customHeight="1" ht="15">
-      <c r="A401"/>
-      <c r="B401"/>
-      <c r="C401"/>
-      <c r="D401"/>
-      <c r="E401"/>
-      <c r="F401"/>
-      <c r="G401"/>
-      <c r="H401"/>
-      <c r="I401"/>
-      <c r="J401"/>
-      <c r="K401"/>
-      <c r="L401"/>
-      <c r="M401"/>
-      <c r="N401"/>
-      <c r="O401"/>
-      <c r="P401"/>
-      <c r="Q401"/>
-    </row>
-    <row r="402" spans="1:17" customHeight="1" ht="15">
-      <c r="A402"/>
-      <c r="B402"/>
-      <c r="C402"/>
-      <c r="D402"/>
-      <c r="E402"/>
-      <c r="F402"/>
-      <c r="G402"/>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
-      <c r="K402"/>
-      <c r="L402"/>
-      <c r="M402"/>
-      <c r="N402"/>
-      <c r="O402"/>
-      <c r="P402"/>
-      <c r="Q402"/>
-    </row>
-    <row r="403" spans="1:17" customHeight="1" ht="15">
-      <c r="A403"/>
-      <c r="B403"/>
-      <c r="C403"/>
-      <c r="D403"/>
-      <c r="E403"/>
-      <c r="F403"/>
-      <c r="G403"/>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
-      <c r="K403"/>
-      <c r="L403"/>
-      <c r="M403"/>
-      <c r="N403"/>
-      <c r="O403"/>
-      <c r="P403"/>
-      <c r="Q403"/>
-    </row>
-    <row r="404" spans="1:17" customHeight="1" ht="15">
-      <c r="A404"/>
-      <c r="B404"/>
-      <c r="C404"/>
-      <c r="D404"/>
-      <c r="E404"/>
-      <c r="F404"/>
-      <c r="G404"/>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
-      <c r="K404"/>
-      <c r="L404"/>
-      <c r="M404"/>
-      <c r="N404"/>
-      <c r="O404"/>
-      <c r="P404"/>
-      <c r="Q404"/>
-    </row>
-    <row r="405" spans="1:17" customHeight="1" ht="15">
-      <c r="A405"/>
-      <c r="B405"/>
-      <c r="C405"/>
-      <c r="D405"/>
-      <c r="E405"/>
-      <c r="F405"/>
-      <c r="G405"/>
-      <c r="H405"/>
-      <c r="I405"/>
-      <c r="J405"/>
-      <c r="K405"/>
-      <c r="L405"/>
-      <c r="M405"/>
-      <c r="N405"/>
-      <c r="O405"/>
-      <c r="P405"/>
-      <c r="Q405"/>
-    </row>
-    <row r="406" spans="1:17" customHeight="1" ht="15">
-      <c r="A406"/>
-      <c r="B406"/>
-      <c r="C406"/>
-      <c r="D406"/>
-      <c r="E406"/>
-      <c r="F406"/>
-      <c r="G406"/>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
-      <c r="K406"/>
-      <c r="L406"/>
-      <c r="M406"/>
-      <c r="N406"/>
-      <c r="O406"/>
-      <c r="P406"/>
-      <c r="Q406"/>
-    </row>
-    <row r="407" spans="1:17" customHeight="1" ht="15">
-      <c r="A407"/>
-      <c r="B407"/>
-      <c r="C407"/>
-      <c r="D407"/>
-      <c r="E407"/>
-      <c r="F407"/>
-      <c r="G407"/>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
-      <c r="K407"/>
-      <c r="L407"/>
-      <c r="M407"/>
-      <c r="N407"/>
-      <c r="O407"/>
-      <c r="P407"/>
-      <c r="Q407"/>
-    </row>
-    <row r="408" spans="1:17" customHeight="1" ht="15">
-      <c r="A408"/>
-      <c r="B408"/>
-      <c r="C408"/>
-      <c r="D408"/>
-      <c r="E408"/>
-      <c r="F408"/>
-      <c r="G408"/>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
-      <c r="K408"/>
-      <c r="L408"/>
-      <c r="M408"/>
-      <c r="N408"/>
-      <c r="O408"/>
-      <c r="P408"/>
-      <c r="Q408"/>
-    </row>
-    <row r="409" spans="1:17" customHeight="1" ht="15">
-      <c r="A409"/>
-      <c r="B409"/>
-      <c r="C409"/>
-      <c r="D409"/>
-      <c r="E409"/>
-      <c r="F409"/>
-      <c r="G409"/>
-      <c r="H409"/>
-      <c r="I409"/>
-      <c r="J409"/>
-      <c r="K409"/>
-      <c r="L409"/>
-      <c r="M409"/>
-      <c r="N409"/>
-      <c r="O409"/>
-      <c r="P409"/>
-      <c r="Q409"/>
-    </row>
-    <row r="410" spans="1:17" customHeight="1" ht="15">
-      <c r="A410"/>
-      <c r="B410"/>
-      <c r="C410"/>
-      <c r="D410"/>
-      <c r="E410"/>
-      <c r="F410"/>
-      <c r="G410"/>
-      <c r="H410"/>
-      <c r="I410"/>
-      <c r="J410"/>
-      <c r="K410"/>
-      <c r="L410"/>
-      <c r="M410"/>
-      <c r="N410"/>
-      <c r="O410"/>
-      <c r="P410"/>
-      <c r="Q410"/>
-    </row>
-    <row r="411" spans="1:17" customHeight="1" ht="15">
-      <c r="A411"/>
-      <c r="B411"/>
-      <c r="C411"/>
-      <c r="D411"/>
-      <c r="E411"/>
-      <c r="F411"/>
-      <c r="G411"/>
-      <c r="H411"/>
-      <c r="I411"/>
-      <c r="J411"/>
-      <c r="K411"/>
-      <c r="L411"/>
-      <c r="M411"/>
-      <c r="N411"/>
-      <c r="O411"/>
-      <c r="P411"/>
-      <c r="Q411"/>
-    </row>
-    <row r="412" spans="1:17" customHeight="1" ht="15">
-      <c r="A412"/>
-      <c r="B412"/>
-      <c r="C412"/>
-      <c r="D412"/>
-      <c r="E412"/>
-      <c r="F412"/>
-      <c r="G412"/>
-      <c r="H412"/>
-      <c r="I412"/>
-      <c r="J412"/>
-      <c r="K412"/>
-      <c r="L412"/>
-      <c r="M412"/>
-      <c r="N412"/>
-      <c r="O412"/>
-      <c r="P412"/>
-      <c r="Q412"/>
-    </row>
-    <row r="413" spans="1:17" customHeight="1" ht="15">
-      <c r="A413"/>
-      <c r="B413"/>
-      <c r="C413"/>
-      <c r="D413"/>
-      <c r="E413"/>
-      <c r="F413"/>
-      <c r="G413"/>
-      <c r="H413"/>
-      <c r="I413"/>
-      <c r="J413"/>
-      <c r="K413"/>
-      <c r="L413"/>
-      <c r="M413"/>
-      <c r="N413"/>
-      <c r="O413"/>
-      <c r="P413"/>
-      <c r="Q413"/>
-    </row>
-    <row r="414" spans="1:17" customHeight="1" ht="15">
-      <c r="A414"/>
-      <c r="B414"/>
-      <c r="C414"/>
-      <c r="D414"/>
-      <c r="E414"/>
-      <c r="F414"/>
-      <c r="G414"/>
-      <c r="H414"/>
-      <c r="I414"/>
-      <c r="J414"/>
-      <c r="K414"/>
-      <c r="L414"/>
-      <c r="M414"/>
-      <c r="N414"/>
-      <c r="O414"/>
-      <c r="P414"/>
-      <c r="Q414"/>
-    </row>
-    <row r="415" spans="1:17" customHeight="1" ht="15">
-      <c r="A415"/>
-      <c r="B415"/>
-      <c r="C415"/>
-      <c r="D415"/>
-      <c r="E415"/>
-      <c r="F415"/>
-      <c r="G415"/>
-      <c r="H415"/>
-      <c r="I415"/>
-      <c r="J415"/>
-      <c r="K415"/>
-      <c r="L415"/>
-      <c r="M415"/>
-      <c r="N415"/>
-      <c r="O415"/>
-      <c r="P415"/>
-      <c r="Q415"/>
-    </row>
-    <row r="416" spans="1:17" customHeight="1" ht="15">
-      <c r="A416"/>
-      <c r="B416"/>
-      <c r="C416"/>
-      <c r="D416"/>
-      <c r="E416"/>
-      <c r="F416"/>
-      <c r="G416"/>
-      <c r="H416"/>
-      <c r="I416"/>
-      <c r="J416"/>
-      <c r="K416"/>
-      <c r="L416"/>
-      <c r="M416"/>
-      <c r="N416"/>
-      <c r="O416"/>
-      <c r="P416"/>
-      <c r="Q416"/>
-    </row>
-    <row r="417" spans="1:17" customHeight="1" ht="15">
-      <c r="A417"/>
-      <c r="B417"/>
-      <c r="C417"/>
-      <c r="D417"/>
-      <c r="E417"/>
-      <c r="F417"/>
-      <c r="G417"/>
-      <c r="H417"/>
-      <c r="I417"/>
-      <c r="J417"/>
-      <c r="K417"/>
-      <c r="L417"/>
-      <c r="M417"/>
-      <c r="N417"/>
-      <c r="O417"/>
-      <c r="P417"/>
-      <c r="Q417"/>
-    </row>
-    <row r="418" spans="1:17" customHeight="1" ht="15">
-      <c r="A418"/>
-      <c r="B418"/>
-      <c r="C418"/>
-      <c r="D418"/>
-      <c r="E418"/>
-      <c r="F418"/>
-      <c r="G418"/>
-      <c r="H418"/>
-      <c r="I418"/>
-      <c r="J418"/>
-      <c r="K418"/>
-      <c r="L418"/>
-      <c r="M418"/>
-      <c r="N418"/>
-      <c r="O418"/>
-      <c r="P418"/>
-      <c r="Q418"/>
-    </row>
-    <row r="419" spans="1:17" customHeight="1" ht="15">
-      <c r="A419"/>
-      <c r="B419"/>
-      <c r="C419"/>
-      <c r="D419"/>
-      <c r="E419"/>
-      <c r="F419"/>
-      <c r="G419"/>
-      <c r="H419"/>
-      <c r="I419"/>
-      <c r="J419"/>
-      <c r="K419"/>
-      <c r="L419"/>
-      <c r="M419"/>
-      <c r="N419"/>
-      <c r="O419"/>
-      <c r="P419"/>
-      <c r="Q419"/>
-    </row>
-    <row r="420" spans="1:17" customHeight="1" ht="15">
-      <c r="A420"/>
-      <c r="B420"/>
-      <c r="C420"/>
-      <c r="D420"/>
-      <c r="E420"/>
-      <c r="F420"/>
-      <c r="G420"/>
-      <c r="H420"/>
-      <c r="I420"/>
-      <c r="J420"/>
-      <c r="K420"/>
-      <c r="L420"/>
-      <c r="M420"/>
-      <c r="N420"/>
-      <c r="O420"/>
-      <c r="P420"/>
-      <c r="Q420"/>
-    </row>
-    <row r="421" spans="1:17" customHeight="1" ht="15">
-      <c r="A421"/>
-      <c r="B421"/>
-      <c r="C421"/>
-      <c r="D421"/>
-      <c r="E421"/>
-      <c r="F421"/>
-      <c r="G421"/>
-      <c r="H421"/>
-      <c r="I421"/>
-      <c r="J421"/>
-      <c r="K421"/>
-      <c r="L421"/>
-      <c r="M421"/>
-      <c r="N421"/>
-      <c r="O421"/>
-      <c r="P421"/>
-      <c r="Q421"/>
-    </row>
-    <row r="422" spans="1:17" customHeight="1" ht="15">
-      <c r="A422"/>
-      <c r="B422"/>
-      <c r="C422"/>
-      <c r="D422"/>
-      <c r="E422"/>
-      <c r="F422"/>
-      <c r="G422"/>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
-      <c r="K422"/>
-      <c r="L422"/>
-      <c r="M422"/>
-      <c r="N422"/>
-      <c r="O422"/>
-      <c r="P422"/>
-      <c r="Q422"/>
-    </row>
-    <row r="423" spans="1:17" customHeight="1" ht="15">
-      <c r="A423"/>
-      <c r="B423"/>
-      <c r="C423"/>
-      <c r="D423"/>
-      <c r="E423"/>
-      <c r="F423"/>
-      <c r="G423"/>
-      <c r="H423"/>
-      <c r="I423"/>
-      <c r="J423"/>
-      <c r="K423"/>
-      <c r="L423"/>
-      <c r="M423"/>
-      <c r="N423"/>
-      <c r="O423"/>
-      <c r="P423"/>
-      <c r="Q423"/>
-    </row>
-    <row r="424" spans="1:17" customHeight="1" ht="15">
-      <c r="A424"/>
-      <c r="B424"/>
-      <c r="C424"/>
-      <c r="D424"/>
-      <c r="E424"/>
-      <c r="F424"/>
-      <c r="G424"/>
-      <c r="H424"/>
-      <c r="I424"/>
-      <c r="J424"/>
-      <c r="K424"/>
-      <c r="L424"/>
-      <c r="M424"/>
-      <c r="N424"/>
-      <c r="O424"/>
-      <c r="P424"/>
-      <c r="Q424"/>
-    </row>
-    <row r="425" spans="1:17" customHeight="1" ht="15">
-      <c r="A425"/>
-      <c r="B425"/>
-      <c r="C425"/>
-      <c r="D425"/>
-      <c r="E425"/>
-      <c r="F425"/>
-      <c r="G425"/>
-      <c r="H425"/>
-      <c r="I425"/>
-      <c r="J425"/>
-      <c r="K425"/>
-      <c r="L425"/>
-      <c r="M425"/>
-      <c r="N425"/>
-      <c r="O425"/>
-      <c r="P425"/>
-      <c r="Q425"/>
-    </row>
-    <row r="426" spans="1:17" customHeight="1" ht="15">
-      <c r="A426"/>
-      <c r="B426"/>
-      <c r="C426"/>
-      <c r="D426"/>
-      <c r="E426"/>
-      <c r="F426"/>
-      <c r="G426"/>
-      <c r="H426"/>
-      <c r="I426"/>
-      <c r="J426"/>
-      <c r="K426"/>
-      <c r="L426"/>
-      <c r="M426"/>
-      <c r="N426"/>
-      <c r="O426"/>
-      <c r="P426"/>
-      <c r="Q426"/>
-    </row>
-    <row r="427" spans="1:17" customHeight="1" ht="15">
-      <c r="A427"/>
-      <c r="B427"/>
-      <c r="C427"/>
-      <c r="D427"/>
-      <c r="E427"/>
-      <c r="F427"/>
-      <c r="G427"/>
-      <c r="H427"/>
-      <c r="I427"/>
-      <c r="J427"/>
-      <c r="K427"/>
-      <c r="L427"/>
-      <c r="M427"/>
-      <c r="N427"/>
-      <c r="O427"/>
-      <c r="P427"/>
-      <c r="Q427"/>
-    </row>
-    <row r="428" spans="1:17" customHeight="1" ht="15">
-      <c r="A428"/>
-      <c r="B428"/>
-      <c r="C428"/>
-      <c r="D428"/>
-      <c r="E428"/>
-      <c r="F428"/>
-      <c r="G428"/>
-      <c r="H428"/>
-      <c r="I428"/>
-      <c r="J428"/>
-      <c r="K428"/>
-      <c r="L428"/>
-      <c r="M428"/>
-      <c r="N428"/>
-      <c r="O428"/>
-      <c r="P428"/>
-      <c r="Q428"/>
-    </row>
-    <row r="429" spans="1:17" customHeight="1" ht="15">
-      <c r="A429"/>
-      <c r="B429"/>
-      <c r="C429"/>
-      <c r="D429"/>
-      <c r="E429"/>
-      <c r="F429"/>
-      <c r="G429"/>
-      <c r="H429"/>
-      <c r="I429"/>
-      <c r="J429"/>
-      <c r="K429"/>
-      <c r="L429"/>
-      <c r="M429"/>
-      <c r="N429"/>
-      <c r="O429"/>
-      <c r="P429"/>
-      <c r="Q429"/>
-    </row>
-    <row r="430" spans="1:17" customHeight="1" ht="15">
-      <c r="A430"/>
-      <c r="B430"/>
-      <c r="C430"/>
-      <c r="D430"/>
-      <c r="E430"/>
-      <c r="F430"/>
-      <c r="G430"/>
-      <c r="H430"/>
-      <c r="I430"/>
-      <c r="J430"/>
-      <c r="K430"/>
-      <c r="L430"/>
-      <c r="M430"/>
-      <c r="N430"/>
-      <c r="O430"/>
-      <c r="P430"/>
-      <c r="Q430"/>
-    </row>
-    <row r="431" spans="1:17" customHeight="1" ht="15">
-      <c r="A431"/>
-      <c r="B431"/>
-      <c r="C431"/>
-      <c r="D431"/>
-      <c r="E431"/>
-      <c r="F431"/>
-      <c r="G431"/>
-      <c r="H431"/>
-      <c r="I431"/>
-      <c r="J431"/>
-      <c r="K431"/>
-      <c r="L431"/>
-      <c r="M431"/>
-      <c r="N431"/>
-      <c r="O431"/>
-      <c r="P431"/>
-      <c r="Q431"/>
-    </row>
-    <row r="432" spans="1:17" customHeight="1" ht="15">
-      <c r="A432"/>
-      <c r="B432"/>
-      <c r="C432"/>
-      <c r="D432"/>
-      <c r="E432"/>
-      <c r="F432"/>
-      <c r="G432"/>
-      <c r="H432"/>
-      <c r="I432"/>
-      <c r="J432"/>
-      <c r="K432"/>
-      <c r="L432"/>
-      <c r="M432"/>
-      <c r="N432"/>
-      <c r="O432"/>
-      <c r="P432"/>
-      <c r="Q432"/>
-    </row>
-    <row r="433" spans="1:17" customHeight="1" ht="15">
-      <c r="A433"/>
-      <c r="B433"/>
-      <c r="C433"/>
-      <c r="D433"/>
-      <c r="E433"/>
-      <c r="F433"/>
-      <c r="G433"/>
-      <c r="H433"/>
-      <c r="I433"/>
-      <c r="J433"/>
-      <c r="K433"/>
-      <c r="L433"/>
-      <c r="M433"/>
-      <c r="N433"/>
-      <c r="O433"/>
-      <c r="P433"/>
-      <c r="Q433"/>
-    </row>
-    <row r="434" spans="1:17" customHeight="1" ht="15">
-      <c r="A434"/>
-      <c r="B434"/>
-      <c r="C434"/>
-      <c r="D434"/>
-      <c r="E434"/>
-      <c r="F434"/>
-      <c r="G434"/>
-      <c r="H434"/>
-      <c r="I434"/>
-      <c r="J434"/>
-      <c r="K434"/>
-      <c r="L434"/>
-      <c r="M434"/>
-      <c r="N434"/>
-      <c r="O434"/>
-      <c r="P434"/>
-      <c r="Q434"/>
-    </row>
-    <row r="435" spans="1:17" customHeight="1" ht="15">
-      <c r="A435"/>
-      <c r="B435"/>
-      <c r="C435"/>
-      <c r="D435"/>
-      <c r="E435"/>
-      <c r="F435"/>
-      <c r="G435"/>
-      <c r="H435"/>
-      <c r="I435"/>
-      <c r="J435"/>
-      <c r="K435"/>
-      <c r="L435"/>
-      <c r="M435"/>
-      <c r="N435"/>
-      <c r="O435"/>
-      <c r="P435"/>
-      <c r="Q435"/>
-    </row>
-    <row r="436" spans="1:17" customHeight="1" ht="15">
-      <c r="A436"/>
-      <c r="B436"/>
-      <c r="C436"/>
-      <c r="D436"/>
-      <c r="E436"/>
-      <c r="F436"/>
-      <c r="G436"/>
-      <c r="H436"/>
-      <c r="I436"/>
-      <c r="J436"/>
-      <c r="K436"/>
-      <c r="L436"/>
-      <c r="M436"/>
-      <c r="N436"/>
-      <c r="O436"/>
-      <c r="P436"/>
-      <c r="Q436"/>
-    </row>
-    <row r="437" spans="1:17" customHeight="1" ht="15">
-      <c r="A437"/>
-      <c r="B437"/>
-      <c r="C437"/>
-      <c r="D437"/>
-      <c r="E437"/>
-      <c r="F437"/>
-      <c r="G437"/>
-      <c r="H437"/>
-      <c r="I437"/>
-      <c r="J437"/>
-      <c r="K437"/>
-      <c r="L437"/>
-      <c r="M437"/>
-      <c r="N437"/>
-      <c r="O437"/>
-      <c r="P437"/>
-      <c r="Q437"/>
-    </row>
-    <row r="438" spans="1:17" customHeight="1" ht="15">
-      <c r="A438"/>
-      <c r="B438"/>
-      <c r="C438"/>
-      <c r="D438"/>
-      <c r="E438"/>
-      <c r="F438"/>
-      <c r="G438"/>
-      <c r="H438"/>
-      <c r="I438"/>
-      <c r="J438"/>
-      <c r="K438"/>
-      <c r="L438"/>
-      <c r="M438"/>
-      <c r="N438"/>
-      <c r="O438"/>
-      <c r="P438"/>
-      <c r="Q438"/>
-    </row>
-    <row r="439" spans="1:17" customHeight="1" ht="15">
-      <c r="A439"/>
-      <c r="B439"/>
-      <c r="C439"/>
-      <c r="D439"/>
-      <c r="E439"/>
-      <c r="F439"/>
-      <c r="G439"/>
-      <c r="H439"/>
-      <c r="I439"/>
-      <c r="J439"/>
-      <c r="K439"/>
-      <c r="L439"/>
-      <c r="M439"/>
-      <c r="N439"/>
-      <c r="O439"/>
-      <c r="P439"/>
-      <c r="Q439"/>
-    </row>
-    <row r="440" spans="1:17" customHeight="1" ht="15">
-      <c r="A440"/>
-      <c r="B440"/>
-      <c r="C440"/>
-      <c r="D440"/>
-      <c r="E440"/>
-      <c r="F440"/>
-      <c r="G440"/>
-      <c r="H440"/>
-      <c r="I440"/>
-      <c r="J440"/>
-      <c r="K440"/>
-      <c r="L440"/>
-      <c r="M440"/>
-      <c r="N440"/>
-      <c r="O440"/>
-      <c r="P440"/>
-      <c r="Q440"/>
-    </row>
-    <row r="441" spans="1:17" customHeight="1" ht="15">
-      <c r="A441"/>
-      <c r="B441"/>
-      <c r="C441"/>
-      <c r="D441"/>
-      <c r="E441"/>
-      <c r="F441"/>
-      <c r="G441"/>
-      <c r="H441"/>
-      <c r="I441"/>
-      <c r="J441"/>
-      <c r="K441"/>
-      <c r="L441"/>
-      <c r="M441"/>
-      <c r="N441"/>
-      <c r="O441"/>
-      <c r="P441"/>
-      <c r="Q441"/>
-    </row>
-    <row r="442" spans="1:17" customHeight="1" ht="15">
-      <c r="A442"/>
-      <c r="B442"/>
-      <c r="C442"/>
-      <c r="D442"/>
-      <c r="E442"/>
-      <c r="F442"/>
-      <c r="G442"/>
-      <c r="H442"/>
-      <c r="I442"/>
-      <c r="J442"/>
-      <c r="K442"/>
-      <c r="L442"/>
-      <c r="M442"/>
-      <c r="N442"/>
-      <c r="O442"/>
-      <c r="P442"/>
-      <c r="Q442"/>
-    </row>
-    <row r="443" spans="1:17" customHeight="1" ht="15">
-      <c r="A443"/>
-      <c r="B443"/>
-      <c r="C443"/>
-      <c r="D443"/>
-      <c r="E443"/>
-      <c r="F443"/>
-      <c r="G443"/>
-      <c r="H443"/>
-      <c r="I443"/>
-      <c r="J443"/>
-      <c r="K443"/>
-      <c r="L443"/>
-      <c r="M443"/>
-      <c r="N443"/>
-      <c r="O443"/>
-      <c r="P443"/>
-      <c r="Q443"/>
-    </row>
-    <row r="444" spans="1:17" customHeight="1" ht="15">
-      <c r="A444"/>
-      <c r="B444"/>
-      <c r="C444"/>
-      <c r="D444"/>
-      <c r="E444"/>
-      <c r="F444"/>
-      <c r="G444"/>
-      <c r="H444"/>
-      <c r="I444"/>
-      <c r="J444"/>
-      <c r="K444"/>
-      <c r="L444"/>
-      <c r="M444"/>
-      <c r="N444"/>
-      <c r="O444"/>
-      <c r="P444"/>
-      <c r="Q444"/>
-    </row>
-    <row r="445" spans="1:17" customHeight="1" ht="15">
-      <c r="A445"/>
-      <c r="B445"/>
-      <c r="C445"/>
-      <c r="D445"/>
-      <c r="E445"/>
-      <c r="F445"/>
-      <c r="G445"/>
-      <c r="H445"/>
-      <c r="I445"/>
-      <c r="J445"/>
-      <c r="K445"/>
-      <c r="L445"/>
-      <c r="M445"/>
-      <c r="N445"/>
-      <c r="O445"/>
-      <c r="P445"/>
-      <c r="Q445"/>
-    </row>
-    <row r="446" spans="1:17" customHeight="1" ht="15">
-      <c r="A446"/>
-      <c r="B446"/>
-      <c r="C446"/>
-      <c r="D446"/>
-      <c r="E446"/>
-      <c r="F446"/>
-      <c r="G446"/>
-      <c r="H446"/>
-      <c r="I446"/>
-      <c r="J446"/>
-      <c r="K446"/>
-      <c r="L446"/>
-      <c r="M446"/>
-      <c r="N446"/>
-      <c r="O446"/>
-      <c r="P446"/>
-      <c r="Q446"/>
-    </row>
-    <row r="447" spans="1:17" customHeight="1" ht="15">
-      <c r="A447"/>
-      <c r="B447"/>
-      <c r="C447"/>
-      <c r="D447"/>
-      <c r="E447"/>
-      <c r="F447"/>
-      <c r="G447"/>
-      <c r="H447"/>
-      <c r="I447"/>
-      <c r="J447"/>
-      <c r="K447"/>
-      <c r="L447"/>
-      <c r="M447"/>
-      <c r="N447"/>
-      <c r="O447"/>
-      <c r="P447"/>
-      <c r="Q447"/>
-    </row>
-    <row r="448" spans="1:17" customHeight="1" ht="15">
-      <c r="A448"/>
-      <c r="B448"/>
-      <c r="C448"/>
-      <c r="D448"/>
-      <c r="E448"/>
-      <c r="F448"/>
-      <c r="G448"/>
-      <c r="H448"/>
-      <c r="I448"/>
-      <c r="J448"/>
-      <c r="K448"/>
-      <c r="L448"/>
-      <c r="M448"/>
-      <c r="N448"/>
-      <c r="O448"/>
-      <c r="P448"/>
-      <c r="Q448"/>
-    </row>
-    <row r="449" spans="1:17" customHeight="1" ht="15">
-      <c r="A449"/>
-      <c r="B449"/>
-      <c r="C449"/>
-      <c r="D449"/>
-      <c r="E449"/>
-      <c r="F449"/>
-      <c r="G449"/>
-      <c r="H449"/>
-      <c r="I449"/>
-      <c r="J449"/>
-      <c r="K449"/>
-      <c r="L449"/>
-      <c r="M449"/>
-      <c r="N449"/>
-      <c r="O449"/>
-      <c r="P449"/>
-      <c r="Q449"/>
-    </row>
-    <row r="450" spans="1:17" customHeight="1" ht="15">
-      <c r="A450"/>
-      <c r="B450"/>
-      <c r="C450"/>
-      <c r="D450"/>
-      <c r="E450"/>
-      <c r="F450"/>
-      <c r="G450"/>
-      <c r="H450"/>
-      <c r="I450"/>
-      <c r="J450"/>
-      <c r="K450"/>
-      <c r="L450"/>
-      <c r="M450"/>
-      <c r="N450"/>
-      <c r="O450"/>
-      <c r="P450"/>
-      <c r="Q450"/>
-    </row>
-    <row r="451" spans="1:17" customHeight="1" ht="15">
-      <c r="A451"/>
-      <c r="B451"/>
-      <c r="C451"/>
-      <c r="D451"/>
-      <c r="E451"/>
-      <c r="F451"/>
-      <c r="G451"/>
-      <c r="H451"/>
-      <c r="I451"/>
-      <c r="J451"/>
-      <c r="K451"/>
-      <c r="L451"/>
-      <c r="M451"/>
-      <c r="N451"/>
-      <c r="O451"/>
-      <c r="P451"/>
-      <c r="Q451"/>
-    </row>
-    <row r="452" spans="1:17" customHeight="1" ht="15">
-      <c r="A452"/>
-      <c r="B452"/>
-      <c r="C452"/>
-      <c r="D452"/>
-      <c r="E452"/>
-      <c r="F452"/>
-      <c r="G452"/>
-      <c r="H452"/>
-      <c r="I452"/>
-      <c r="J452"/>
-      <c r="K452"/>
-      <c r="L452"/>
-      <c r="M452"/>
-      <c r="N452"/>
-      <c r="O452"/>
-      <c r="P452"/>
-      <c r="Q452"/>
-    </row>
-    <row r="453" spans="1:17" customHeight="1" ht="15">
-      <c r="A453"/>
-      <c r="B453"/>
-      <c r="C453"/>
-      <c r="D453"/>
-      <c r="E453"/>
-      <c r="F453"/>
-      <c r="G453"/>
-      <c r="H453"/>
-      <c r="I453"/>
-      <c r="J453"/>
-      <c r="K453"/>
-      <c r="L453"/>
-      <c r="M453"/>
-      <c r="N453"/>
-      <c r="O453"/>
-      <c r="P453"/>
-      <c r="Q453"/>
-    </row>
-    <row r="454" spans="1:17" customHeight="1" ht="15">
-      <c r="A454"/>
-      <c r="B454"/>
-      <c r="C454"/>
-      <c r="D454"/>
-      <c r="E454"/>
-      <c r="F454"/>
-      <c r="G454"/>
-      <c r="H454"/>
-      <c r="I454"/>
-      <c r="J454"/>
-      <c r="K454"/>
-      <c r="L454"/>
-      <c r="M454"/>
-      <c r="N454"/>
-      <c r="O454"/>
-      <c r="P454"/>
-      <c r="Q454"/>
-    </row>
-    <row r="455" spans="1:17" customHeight="1" ht="15">
-      <c r="A455"/>
-      <c r="B455"/>
-      <c r="C455"/>
-      <c r="D455"/>
-      <c r="E455"/>
-      <c r="F455"/>
-      <c r="G455"/>
-      <c r="H455"/>
-      <c r="I455"/>
-      <c r="J455"/>
-      <c r="K455"/>
-      <c r="L455"/>
-      <c r="M455"/>
-      <c r="N455"/>
-      <c r="O455"/>
-      <c r="P455"/>
-      <c r="Q455"/>
-    </row>
-    <row r="456" spans="1:17" customHeight="1" ht="15">
-      <c r="A456"/>
-      <c r="B456"/>
-      <c r="C456"/>
-      <c r="D456"/>
-      <c r="E456"/>
-      <c r="F456"/>
-      <c r="G456"/>
-      <c r="H456"/>
-      <c r="I456"/>
-      <c r="J456"/>
-      <c r="K456"/>
-      <c r="L456"/>
-      <c r="M456"/>
-      <c r="N456"/>
-      <c r="O456"/>
-      <c r="P456"/>
-      <c r="Q456"/>
-    </row>
-    <row r="457" spans="1:17" customHeight="1" ht="15">
-      <c r="A457"/>
-      <c r="B457"/>
-      <c r="C457"/>
-      <c r="D457"/>
-      <c r="E457"/>
-      <c r="F457"/>
-      <c r="G457"/>
-      <c r="H457"/>
-      <c r="I457"/>
-      <c r="J457"/>
-      <c r="K457"/>
-      <c r="L457"/>
-      <c r="M457"/>
-      <c r="N457"/>
-      <c r="O457"/>
-      <c r="P457"/>
-      <c r="Q457"/>
-    </row>
-    <row r="458" spans="1:17" customHeight="1" ht="15">
-      <c r="A458"/>
-      <c r="B458"/>
-      <c r="C458"/>
-      <c r="D458"/>
-      <c r="E458"/>
-      <c r="F458"/>
-      <c r="G458"/>
-      <c r="H458"/>
-      <c r="I458"/>
-      <c r="J458"/>
-      <c r="K458"/>
-      <c r="L458"/>
-      <c r="M458"/>
-      <c r="N458"/>
-      <c r="O458"/>
-      <c r="P458"/>
-      <c r="Q458"/>
-    </row>
-    <row r="459" spans="1:17" customHeight="1" ht="15">
-      <c r="A459"/>
-      <c r="B459"/>
-      <c r="C459"/>
-      <c r="D459"/>
-      <c r="E459"/>
-      <c r="F459"/>
-      <c r="G459"/>
-      <c r="H459"/>
-      <c r="I459"/>
-      <c r="J459"/>
-      <c r="K459"/>
-      <c r="L459"/>
-      <c r="M459"/>
-      <c r="N459"/>
-      <c r="O459"/>
-      <c r="P459"/>
-      <c r="Q459"/>
-    </row>
-    <row r="460" spans="1:17" customHeight="1" ht="15">
-      <c r="A460"/>
-      <c r="B460"/>
-      <c r="C460"/>
-      <c r="D460"/>
-      <c r="E460"/>
-      <c r="F460"/>
-      <c r="G460"/>
-      <c r="H460"/>
-      <c r="I460"/>
-      <c r="J460"/>
-      <c r="K460"/>
-      <c r="L460"/>
-      <c r="M460"/>
-      <c r="N460"/>
-      <c r="O460"/>
-      <c r="P460"/>
-      <c r="Q460"/>
-    </row>
-    <row r="461" spans="1:17" customHeight="1" ht="15">
-      <c r="A461"/>
-      <c r="B461"/>
-      <c r="C461"/>
-      <c r="D461"/>
-      <c r="E461"/>
-      <c r="F461"/>
-      <c r="G461"/>
-      <c r="H461"/>
-      <c r="I461"/>
-      <c r="J461"/>
-      <c r="K461"/>
-      <c r="L461"/>
-      <c r="M461"/>
-      <c r="N461"/>
-      <c r="O461"/>
-      <c r="P461"/>
-      <c r="Q461"/>
-    </row>
-    <row r="462" spans="1:17" customHeight="1" ht="15">
-      <c r="A462"/>
-      <c r="B462"/>
-      <c r="C462"/>
-      <c r="D462"/>
-      <c r="E462"/>
-      <c r="F462"/>
-      <c r="G462"/>
-      <c r="H462"/>
-      <c r="I462"/>
-      <c r="J462"/>
-      <c r="K462"/>
-      <c r="L462"/>
-      <c r="M462"/>
-      <c r="N462"/>
-      <c r="O462"/>
-      <c r="P462"/>
-      <c r="Q462"/>
-    </row>
-    <row r="463" spans="1:17" customHeight="1" ht="15">
-      <c r="A463"/>
-      <c r="B463"/>
-      <c r="C463"/>
-      <c r="D463"/>
-      <c r="E463"/>
-      <c r="F463"/>
-      <c r="G463"/>
-      <c r="H463"/>
-      <c r="I463"/>
-      <c r="J463"/>
-      <c r="K463"/>
-      <c r="L463"/>
-      <c r="M463"/>
-      <c r="N463"/>
-      <c r="O463"/>
-      <c r="P463"/>
-      <c r="Q463"/>
-    </row>
-    <row r="464" spans="1:17" customHeight="1" ht="15">
-      <c r="A464"/>
-      <c r="B464"/>
-      <c r="C464"/>
-      <c r="D464"/>
-      <c r="E464"/>
-      <c r="F464"/>
-      <c r="G464"/>
-      <c r="H464"/>
-      <c r="I464"/>
-      <c r="J464"/>
-      <c r="K464"/>
-      <c r="L464"/>
-      <c r="M464"/>
-      <c r="N464"/>
-      <c r="O464"/>
-      <c r="P464"/>
-      <c r="Q464"/>
-    </row>
-    <row r="465" spans="1:17" customHeight="1" ht="15">
-      <c r="A465"/>
-      <c r="B465"/>
-      <c r="C465"/>
-      <c r="D465"/>
-      <c r="E465"/>
-      <c r="F465"/>
-      <c r="G465"/>
-      <c r="H465"/>
-      <c r="I465"/>
-      <c r="J465"/>
-      <c r="K465"/>
-      <c r="L465"/>
-      <c r="M465"/>
-      <c r="N465"/>
-      <c r="O465"/>
-      <c r="P465"/>
-      <c r="Q465"/>
-    </row>
-    <row r="466" spans="1:17" customHeight="1" ht="15">
-      <c r="A466"/>
-      <c r="B466"/>
-      <c r="C466"/>
-      <c r="D466"/>
-      <c r="E466"/>
-      <c r="F466"/>
-      <c r="G466"/>
-      <c r="H466"/>
-      <c r="I466"/>
-      <c r="J466"/>
-      <c r="K466"/>
-      <c r="L466"/>
-      <c r="M466"/>
-      <c r="N466"/>
-      <c r="O466"/>
-      <c r="P466"/>
-      <c r="Q466"/>
-    </row>
-    <row r="467" spans="1:17" customHeight="1" ht="15">
-      <c r="A467"/>
-      <c r="B467"/>
-      <c r="C467"/>
-      <c r="D467"/>
-      <c r="E467"/>
-      <c r="F467"/>
-      <c r="G467"/>
-      <c r="H467"/>
-      <c r="I467"/>
-      <c r="J467"/>
-      <c r="K467"/>
-      <c r="L467"/>
-      <c r="M467"/>
-      <c r="N467"/>
-      <c r="O467"/>
-      <c r="P467"/>
-      <c r="Q467"/>
-    </row>
-    <row r="468" spans="1:17" customHeight="1" ht="15">
-      <c r="A468"/>
-      <c r="B468"/>
-      <c r="C468"/>
-      <c r="D468"/>
-      <c r="E468"/>
-      <c r="F468"/>
-      <c r="G468"/>
-      <c r="H468"/>
-      <c r="I468"/>
-      <c r="J468"/>
-      <c r="K468"/>
-      <c r="L468"/>
-      <c r="M468"/>
-      <c r="N468"/>
-      <c r="O468"/>
-      <c r="P468"/>
-      <c r="Q468"/>
-    </row>
-    <row r="469" spans="1:17" customHeight="1" ht="15">
-      <c r="A469"/>
-      <c r="B469"/>
-      <c r="C469"/>
-      <c r="D469"/>
-      <c r="E469"/>
-      <c r="F469"/>
-      <c r="G469"/>
-      <c r="H469"/>
-      <c r="I469"/>
-      <c r="J469"/>
-      <c r="K469"/>
-      <c r="L469"/>
-      <c r="M469"/>
-      <c r="N469"/>
-      <c r="O469"/>
-      <c r="P469"/>
-      <c r="Q469"/>
-    </row>
-    <row r="470" spans="1:17" customHeight="1" ht="15">
-      <c r="A470"/>
-      <c r="B470"/>
-      <c r="C470"/>
-      <c r="D470"/>
-      <c r="E470"/>
-      <c r="F470"/>
-      <c r="G470"/>
-      <c r="H470"/>
-      <c r="I470"/>
-      <c r="J470"/>
-      <c r="K470"/>
-      <c r="L470"/>
-      <c r="M470"/>
-      <c r="N470"/>
-      <c r="O470"/>
-      <c r="P470"/>
-      <c r="Q470"/>
-    </row>
-    <row r="471" spans="1:17" customHeight="1" ht="15">
-      <c r="A471"/>
-      <c r="B471"/>
-      <c r="C471"/>
-      <c r="D471"/>
-      <c r="E471"/>
-      <c r="F471"/>
-      <c r="G471"/>
-      <c r="H471"/>
-      <c r="I471"/>
-      <c r="J471"/>
-      <c r="K471"/>
-      <c r="L471"/>
-      <c r="M471"/>
-      <c r="N471"/>
-      <c r="O471"/>
-      <c r="P471"/>
-      <c r="Q471"/>
-    </row>
-    <row r="472" spans="1:17" customHeight="1" ht="15">
-      <c r="A472"/>
-      <c r="B472"/>
-      <c r="C472"/>
-      <c r="D472"/>
-      <c r="E472"/>
-      <c r="F472"/>
-      <c r="G472"/>
-      <c r="H472"/>
-      <c r="I472"/>
-      <c r="J472"/>
-      <c r="K472"/>
-      <c r="L472"/>
-      <c r="M472"/>
-      <c r="N472"/>
-      <c r="O472"/>
-      <c r="P472"/>
-      <c r="Q472"/>
-    </row>
-    <row r="473" spans="1:17" customHeight="1" ht="15">
-      <c r="A473"/>
-      <c r="B473"/>
-      <c r="C473"/>
-      <c r="D473"/>
-      <c r="E473"/>
-      <c r="F473"/>
-      <c r="G473"/>
-      <c r="H473"/>
-      <c r="I473"/>
-      <c r="J473"/>
-      <c r="K473"/>
-      <c r="L473"/>
-      <c r="M473"/>
-      <c r="N473"/>
-      <c r="O473"/>
-      <c r="P473"/>
-      <c r="Q473"/>
-    </row>
-    <row r="474" spans="1:17" customHeight="1" ht="15">
-      <c r="A474"/>
-      <c r="B474"/>
-      <c r="C474"/>
-      <c r="D474"/>
-      <c r="E474"/>
-      <c r="F474"/>
-      <c r="G474"/>
-      <c r="H474"/>
-      <c r="I474"/>
-      <c r="J474"/>
-      <c r="K474"/>
-      <c r="L474"/>
-      <c r="M474"/>
-      <c r="N474"/>
-      <c r="O474"/>
-      <c r="P474"/>
-      <c r="Q474"/>
-    </row>
-    <row r="475" spans="1:17" customHeight="1" ht="15">
-      <c r="A475"/>
-      <c r="B475"/>
-      <c r="C475"/>
-      <c r="D475"/>
-      <c r="E475"/>
-      <c r="F475"/>
-      <c r="G475"/>
-      <c r="H475"/>
-      <c r="I475"/>
-      <c r="J475"/>
-      <c r="K475"/>
-      <c r="L475"/>
-      <c r="M475"/>
-      <c r="N475"/>
-      <c r="O475"/>
-      <c r="P475"/>
-      <c r="Q475"/>
-    </row>
-    <row r="476" spans="1:17" customHeight="1" ht="15">
-      <c r="A476"/>
-      <c r="B476"/>
-      <c r="C476"/>
-      <c r="D476"/>
-      <c r="E476"/>
-      <c r="F476"/>
-      <c r="G476"/>
-      <c r="H476"/>
-      <c r="I476"/>
-      <c r="J476"/>
-      <c r="K476"/>
-      <c r="L476"/>
-      <c r="M476"/>
-      <c r="N476"/>
-      <c r="O476"/>
-      <c r="P476"/>
-      <c r="Q476"/>
-    </row>
-    <row r="477" spans="1:17" customHeight="1" ht="15">
-      <c r="A477"/>
-      <c r="B477"/>
-      <c r="C477"/>
-      <c r="D477"/>
-      <c r="E477"/>
-      <c r="F477"/>
-      <c r="G477"/>
-      <c r="H477"/>
-      <c r="I477"/>
-      <c r="J477"/>
-      <c r="K477"/>
-      <c r="L477"/>
-      <c r="M477"/>
-      <c r="N477"/>
-      <c r="O477"/>
-      <c r="P477"/>
-      <c r="Q477"/>
-    </row>
-    <row r="478" spans="1:17" customHeight="1" ht="15">
-      <c r="A478"/>
-      <c r="B478"/>
-      <c r="C478"/>
-      <c r="D478"/>
-      <c r="E478"/>
-      <c r="F478"/>
-      <c r="G478"/>
-      <c r="H478"/>
-      <c r="I478"/>
-      <c r="J478"/>
-      <c r="K478"/>
-      <c r="L478"/>
-      <c r="M478"/>
-      <c r="N478"/>
-      <c r="O478"/>
-      <c r="P478"/>
-      <c r="Q478"/>
-    </row>
-    <row r="479" spans="1:17" customHeight="1" ht="15">
-      <c r="A479"/>
-      <c r="B479"/>
-      <c r="C479"/>
-      <c r="D479"/>
-      <c r="E479"/>
-      <c r="F479"/>
-      <c r="G479"/>
-      <c r="H479"/>
-      <c r="I479"/>
-      <c r="J479"/>
-      <c r="K479"/>
-      <c r="L479"/>
-      <c r="M479"/>
-      <c r="N479"/>
-      <c r="O479"/>
-      <c r="P479"/>
-      <c r="Q479"/>
-    </row>
-    <row r="480" spans="1:17" customHeight="1" ht="15">
-      <c r="A480"/>
-      <c r="B480"/>
-      <c r="C480"/>
-      <c r="D480"/>
-      <c r="E480"/>
-      <c r="F480"/>
-      <c r="G480"/>
-      <c r="H480"/>
-      <c r="I480"/>
-      <c r="J480"/>
-      <c r="K480"/>
-      <c r="L480"/>
-      <c r="M480"/>
-      <c r="N480"/>
-      <c r="O480"/>
-      <c r="P480"/>
-      <c r="Q480"/>
-    </row>
-    <row r="481" spans="1:17" customHeight="1" ht="15">
-      <c r="A481"/>
-      <c r="B481"/>
-      <c r="C481"/>
-      <c r="D481"/>
-      <c r="E481"/>
-      <c r="F481"/>
-      <c r="G481"/>
-      <c r="H481"/>
-      <c r="I481"/>
-      <c r="J481"/>
-      <c r="K481"/>
-      <c r="L481"/>
-      <c r="M481"/>
-      <c r="N481"/>
-      <c r="O481"/>
-      <c r="P481"/>
-      <c r="Q481"/>
-    </row>
-    <row r="482" spans="1:17" customHeight="1" ht="15">
-      <c r="A482"/>
-      <c r="B482"/>
-      <c r="C482"/>
-      <c r="D482"/>
-      <c r="E482"/>
-      <c r="F482"/>
-      <c r="G482"/>
-      <c r="H482"/>
-      <c r="I482"/>
-      <c r="J482"/>
-      <c r="K482"/>
-      <c r="L482"/>
-      <c r="M482"/>
-      <c r="N482"/>
-      <c r="O482"/>
-      <c r="P482"/>
-      <c r="Q482"/>
-    </row>
-    <row r="483" spans="1:17" customHeight="1" ht="15">
-      <c r="A483"/>
-      <c r="B483"/>
-      <c r="C483"/>
-      <c r="D483"/>
-      <c r="E483"/>
-      <c r="F483"/>
-      <c r="G483"/>
-      <c r="H483"/>
-      <c r="I483"/>
-      <c r="J483"/>
-      <c r="K483"/>
-      <c r="L483"/>
-      <c r="M483"/>
-      <c r="N483"/>
-      <c r="O483"/>
-      <c r="P483"/>
-      <c r="Q483"/>
-    </row>
-    <row r="484" spans="1:17" customHeight="1" ht="15">
-      <c r="A484"/>
-      <c r="B484"/>
-      <c r="C484"/>
-      <c r="D484"/>
-      <c r="E484"/>
-      <c r="F484"/>
-      <c r="G484"/>
-      <c r="H484"/>
-      <c r="I484"/>
-      <c r="J484"/>
-      <c r="K484"/>
-      <c r="L484"/>
-      <c r="M484"/>
-      <c r="N484"/>
-      <c r="O484"/>
-      <c r="P484"/>
-      <c r="Q484"/>
-    </row>
-    <row r="485" spans="1:17" customHeight="1" ht="15">
-      <c r="A485"/>
-      <c r="B485"/>
-      <c r="C485"/>
-      <c r="D485"/>
-      <c r="E485"/>
-      <c r="F485"/>
-      <c r="G485"/>
-      <c r="H485"/>
-      <c r="I485"/>
-      <c r="J485"/>
-      <c r="K485"/>
-      <c r="L485"/>
-      <c r="M485"/>
-      <c r="N485"/>
-      <c r="O485"/>
-      <c r="P485"/>
-      <c r="Q485"/>
-    </row>
-    <row r="486" spans="1:17" customHeight="1" ht="15">
-      <c r="A486"/>
-      <c r="B486"/>
-      <c r="C486"/>
-      <c r="D486"/>
-      <c r="E486"/>
-      <c r="F486"/>
-      <c r="G486"/>
-      <c r="H486"/>
-      <c r="I486"/>
-      <c r="J486"/>
-      <c r="K486"/>
-      <c r="L486"/>
-      <c r="M486"/>
-      <c r="N486"/>
-      <c r="O486"/>
-      <c r="P486"/>
-      <c r="Q486"/>
-    </row>
-    <row r="487" spans="1:17" customHeight="1" ht="15">
-      <c r="A487"/>
-      <c r="B487"/>
-      <c r="C487"/>
-      <c r="D487"/>
-      <c r="E487"/>
-      <c r="F487"/>
-      <c r="G487"/>
-      <c r="H487"/>
-      <c r="I487"/>
-      <c r="J487"/>
-      <c r="K487"/>
-      <c r="L487"/>
-      <c r="M487"/>
-      <c r="N487"/>
-      <c r="O487"/>
-      <c r="P487"/>
-      <c r="Q487"/>
-    </row>
-    <row r="488" spans="1:17" customHeight="1" ht="15">
-      <c r="A488"/>
-      <c r="B488"/>
-      <c r="C488"/>
-      <c r="D488"/>
-      <c r="E488"/>
-      <c r="F488"/>
-      <c r="G488"/>
-      <c r="H488"/>
-      <c r="I488"/>
-      <c r="J488"/>
-      <c r="K488"/>
-      <c r="L488"/>
-      <c r="M488"/>
-      <c r="N488"/>
-      <c r="O488"/>
-      <c r="P488"/>
-      <c r="Q488"/>
-    </row>
-    <row r="489" spans="1:17" customHeight="1" ht="15">
-      <c r="A489"/>
-      <c r="B489"/>
-      <c r="C489"/>
-      <c r="D489"/>
-      <c r="E489"/>
-      <c r="F489"/>
-      <c r="G489"/>
-      <c r="H489"/>
-      <c r="I489"/>
-      <c r="J489"/>
-      <c r="K489"/>
-      <c r="L489"/>
-      <c r="M489"/>
-      <c r="N489"/>
-      <c r="O489"/>
-      <c r="P489"/>
-      <c r="Q489"/>
-    </row>
-    <row r="490" spans="1:17" customHeight="1" ht="15">
-      <c r="A490"/>
-      <c r="B490"/>
-      <c r="C490"/>
-      <c r="D490"/>
-      <c r="E490"/>
-      <c r="F490"/>
-      <c r="G490"/>
-      <c r="H490"/>
-      <c r="I490"/>
-      <c r="J490"/>
-      <c r="K490"/>
-      <c r="L490"/>
-      <c r="M490"/>
-      <c r="N490"/>
-      <c r="O490"/>
-      <c r="P490"/>
-      <c r="Q490"/>
-    </row>
-    <row r="491" spans="1:17" customHeight="1" ht="15">
-      <c r="A491"/>
-      <c r="B491"/>
-      <c r="C491"/>
-      <c r="D491"/>
-      <c r="E491"/>
-      <c r="F491"/>
-      <c r="G491"/>
-      <c r="H491"/>
-      <c r="I491"/>
-      <c r="J491"/>
-      <c r="K491"/>
-      <c r="L491"/>
-      <c r="M491"/>
-      <c r="N491"/>
-      <c r="O491"/>
-      <c r="P491"/>
-      <c r="Q491"/>
-    </row>
-    <row r="492" spans="1:17" customHeight="1" ht="15">
-      <c r="A492"/>
-      <c r="B492"/>
-      <c r="C492"/>
-      <c r="D492"/>
-      <c r="E492"/>
-      <c r="F492"/>
-      <c r="G492"/>
-      <c r="H492"/>
-      <c r="I492"/>
-      <c r="J492"/>
-      <c r="K492"/>
-      <c r="L492"/>
-      <c r="M492"/>
-      <c r="N492"/>
-      <c r="O492"/>
-      <c r="P492"/>
-      <c r="Q492"/>
-    </row>
-    <row r="493" spans="1:17" customHeight="1" ht="15">
-      <c r="A493"/>
-      <c r="B493"/>
-      <c r="C493"/>
-      <c r="D493"/>
-      <c r="E493"/>
-      <c r="F493"/>
-      <c r="G493"/>
-      <c r="H493"/>
-      <c r="I493"/>
-      <c r="J493"/>
-      <c r="K493"/>
-      <c r="L493"/>
-      <c r="M493"/>
-      <c r="N493"/>
-      <c r="O493"/>
-      <c r="P493"/>
-      <c r="Q493"/>
-    </row>
-    <row r="494" spans="1:17" customHeight="1" ht="15">
-      <c r="A494"/>
-      <c r="B494"/>
-      <c r="C494"/>
-      <c r="D494"/>
-      <c r="E494"/>
-      <c r="F494"/>
-      <c r="G494"/>
-      <c r="H494"/>
-      <c r="I494"/>
-      <c r="J494"/>
-      <c r="K494"/>
-      <c r="L494"/>
-      <c r="M494"/>
-      <c r="N494"/>
-      <c r="O494"/>
-      <c r="P494"/>
-      <c r="Q494"/>
-    </row>
-    <row r="495" spans="1:17" customHeight="1" ht="15">
-      <c r="A495"/>
-      <c r="B495"/>
-      <c r="C495"/>
-      <c r="D495"/>
-      <c r="E495"/>
-      <c r="F495"/>
-      <c r="G495"/>
-      <c r="H495"/>
-      <c r="I495"/>
-      <c r="J495"/>
-      <c r="K495"/>
-      <c r="L495"/>
-      <c r="M495"/>
-      <c r="N495"/>
-      <c r="O495"/>
-      <c r="P495"/>
-      <c r="Q495"/>
-    </row>
-    <row r="496" spans="1:17" customHeight="1" ht="15">
-      <c r="A496"/>
-      <c r="B496"/>
-      <c r="C496"/>
-      <c r="D496"/>
-      <c r="E496"/>
-      <c r="F496"/>
-      <c r="G496"/>
-      <c r="H496"/>
-      <c r="I496"/>
-      <c r="J496"/>
-      <c r="K496"/>
-      <c r="L496"/>
-      <c r="M496"/>
-      <c r="N496"/>
-      <c r="O496"/>
-      <c r="P496"/>
-      <c r="Q496"/>
-    </row>
-    <row r="497" spans="1:17" customHeight="1" ht="15">
-      <c r="A497"/>
-      <c r="B497"/>
-      <c r="C497"/>
-      <c r="D497"/>
-      <c r="E497"/>
-      <c r="F497"/>
-      <c r="G497"/>
-      <c r="H497"/>
-      <c r="I497"/>
-      <c r="J497"/>
-      <c r="K497"/>
-      <c r="L497"/>
-      <c r="M497"/>
-      <c r="N497"/>
-      <c r="O497"/>
-      <c r="P497"/>
-      <c r="Q497"/>
-    </row>
-    <row r="498" spans="1:17" customHeight="1" ht="15">
-      <c r="A498"/>
-      <c r="B498"/>
-      <c r="C498"/>
-      <c r="D498"/>
-      <c r="E498"/>
-      <c r="F498"/>
-      <c r="G498"/>
-      <c r="H498"/>
-      <c r="I498"/>
-      <c r="J498"/>
-      <c r="K498"/>
-      <c r="L498"/>
-      <c r="M498"/>
-      <c r="N498"/>
-      <c r="O498"/>
-      <c r="P498"/>
-      <c r="Q498"/>
-    </row>
-    <row r="499" spans="1:17" customHeight="1" ht="15">
-      <c r="A499"/>
-      <c r="B499"/>
-      <c r="C499"/>
-      <c r="D499"/>
-      <c r="E499"/>
-      <c r="F499"/>
-      <c r="G499"/>
-      <c r="H499"/>
-      <c r="I499"/>
-      <c r="J499"/>
-      <c r="K499"/>
-      <c r="L499"/>
-      <c r="M499"/>
-      <c r="N499"/>
-      <c r="O499"/>
-      <c r="P499"/>
-      <c r="Q499"/>
-    </row>
-    <row r="500" spans="1:17">
-      <c r="A500"/>
-      <c r="B500"/>
-      <c r="C500"/>
-      <c r="D500"/>
-      <c r="E500"/>
-      <c r="F500"/>
-      <c r="G500"/>
-      <c r="H500"/>
-      <c r="I500"/>
-      <c r="J500"/>
-      <c r="K500"/>
-      <c r="L500"/>
-      <c r="M500"/>
-      <c r="N500"/>
-      <c r="O500"/>
-      <c r="P500"/>
-      <c r="Q500"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -11739,19 +8045,13 @@
     <mergeCell ref="I81:J81"/>
     <mergeCell ref="K81:M81"/>
     <mergeCell ref="N81:P81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="A82:B83"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="G82:H83"/>
+    <mergeCell ref="I82:J83"/>
+    <mergeCell ref="K82:M83"/>
     <mergeCell ref="N82:P83"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:M83"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="C87:F87"/>
     <mergeCell ref="G87:J87"/>
@@ -11837,19 +8137,13 @@
     <mergeCell ref="I100:J100"/>
     <mergeCell ref="K100:M100"/>
     <mergeCell ref="N100:P100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="A101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E101:F102"/>
+    <mergeCell ref="G101:H102"/>
+    <mergeCell ref="I101:J102"/>
+    <mergeCell ref="K101:M102"/>
     <mergeCell ref="N101:P102"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:M102"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:F106"/>
     <mergeCell ref="G106:J106"/>
@@ -11935,19 +8229,13 @@
     <mergeCell ref="I119:J119"/>
     <mergeCell ref="K119:M119"/>
     <mergeCell ref="N119:P119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:M120"/>
+    <mergeCell ref="A120:B121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="E120:F121"/>
+    <mergeCell ref="G120:H121"/>
+    <mergeCell ref="I120:J121"/>
+    <mergeCell ref="K120:M121"/>
     <mergeCell ref="N120:P121"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="K121:M121"/>
     <mergeCell ref="G124:J125"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="B127:H127"/>
@@ -12036,19 +8324,13 @@
     <mergeCell ref="I143:J143"/>
     <mergeCell ref="K143:M143"/>
     <mergeCell ref="N143:P143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="I144:J144"/>
-    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="A144:B145"/>
+    <mergeCell ref="C144:D145"/>
+    <mergeCell ref="E144:F145"/>
+    <mergeCell ref="G144:H145"/>
+    <mergeCell ref="I144:J145"/>
+    <mergeCell ref="K144:M145"/>
     <mergeCell ref="N144:P145"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="K145:M145"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="C149:F149"/>
     <mergeCell ref="G149:J149"/>
@@ -12134,19 +8416,13 @@
     <mergeCell ref="I162:J162"/>
     <mergeCell ref="K162:M162"/>
     <mergeCell ref="N162:P162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="K163:M163"/>
+    <mergeCell ref="A163:B164"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="E163:F164"/>
+    <mergeCell ref="G163:H164"/>
+    <mergeCell ref="I163:J164"/>
+    <mergeCell ref="K163:M164"/>
     <mergeCell ref="N163:P164"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="I164:J164"/>
-    <mergeCell ref="K164:M164"/>
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="C168:F168"/>
     <mergeCell ref="G168:J168"/>
@@ -12232,19 +8508,13 @@
     <mergeCell ref="I181:J181"/>
     <mergeCell ref="K181:M181"/>
     <mergeCell ref="N181:P181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="K182:M182"/>
+    <mergeCell ref="A182:B183"/>
+    <mergeCell ref="C182:D183"/>
+    <mergeCell ref="E182:F183"/>
+    <mergeCell ref="G182:H183"/>
+    <mergeCell ref="I182:J183"/>
+    <mergeCell ref="K182:M183"/>
     <mergeCell ref="N182:P183"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:M183"/>
     <mergeCell ref="G186:J187"/>
     <mergeCell ref="C188:D188"/>
     <mergeCell ref="B189:H189"/>
@@ -12333,19 +8603,13 @@
     <mergeCell ref="I205:J205"/>
     <mergeCell ref="K205:M205"/>
     <mergeCell ref="N205:P205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="I206:J206"/>
-    <mergeCell ref="K206:M206"/>
+    <mergeCell ref="A206:B207"/>
+    <mergeCell ref="C206:D207"/>
+    <mergeCell ref="E206:F207"/>
+    <mergeCell ref="G206:H207"/>
+    <mergeCell ref="I206:J207"/>
+    <mergeCell ref="K206:M207"/>
     <mergeCell ref="N206:P207"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="K207:M207"/>
     <mergeCell ref="A211:B211"/>
     <mergeCell ref="C211:F211"/>
     <mergeCell ref="G211:J211"/>
@@ -12431,19 +8695,13 @@
     <mergeCell ref="I224:J224"/>
     <mergeCell ref="K224:M224"/>
     <mergeCell ref="N224:P224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="I225:J225"/>
-    <mergeCell ref="K225:M225"/>
+    <mergeCell ref="A225:B226"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="E225:F226"/>
+    <mergeCell ref="G225:H226"/>
+    <mergeCell ref="I225:J226"/>
+    <mergeCell ref="K225:M226"/>
     <mergeCell ref="N225:P226"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="I226:J226"/>
-    <mergeCell ref="K226:M226"/>
     <mergeCell ref="A230:B230"/>
     <mergeCell ref="C230:F230"/>
     <mergeCell ref="G230:J230"/>
@@ -12529,19 +8787,13 @@
     <mergeCell ref="I243:J243"/>
     <mergeCell ref="K243:M243"/>
     <mergeCell ref="N243:P243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="E244:F244"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="I244:J244"/>
-    <mergeCell ref="K244:M244"/>
+    <mergeCell ref="A244:B245"/>
+    <mergeCell ref="C244:D245"/>
+    <mergeCell ref="E244:F245"/>
+    <mergeCell ref="G244:H245"/>
+    <mergeCell ref="I244:J245"/>
+    <mergeCell ref="K244:M245"/>
     <mergeCell ref="N244:P245"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="E245:F245"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="I245:J245"/>
-    <mergeCell ref="K245:M245"/>
     <mergeCell ref="G248:J249"/>
     <mergeCell ref="C250:D250"/>
     <mergeCell ref="B251:H251"/>
@@ -12630,19 +8882,13 @@
     <mergeCell ref="I267:J267"/>
     <mergeCell ref="K267:M267"/>
     <mergeCell ref="N267:P267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="E268:F268"/>
-    <mergeCell ref="G268:H268"/>
-    <mergeCell ref="I268:J268"/>
-    <mergeCell ref="K268:M268"/>
+    <mergeCell ref="A268:B269"/>
+    <mergeCell ref="C268:D269"/>
+    <mergeCell ref="E268:F269"/>
+    <mergeCell ref="G268:H269"/>
+    <mergeCell ref="I268:J269"/>
+    <mergeCell ref="K268:M269"/>
     <mergeCell ref="N268:P269"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="C269:D269"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="G269:H269"/>
-    <mergeCell ref="I269:J269"/>
-    <mergeCell ref="K269:M269"/>
     <mergeCell ref="A273:B273"/>
     <mergeCell ref="C273:F273"/>
     <mergeCell ref="G273:J273"/>
@@ -12728,19 +8974,13 @@
     <mergeCell ref="I286:J286"/>
     <mergeCell ref="K286:M286"/>
     <mergeCell ref="N286:P286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="C287:D287"/>
-    <mergeCell ref="E287:F287"/>
-    <mergeCell ref="G287:H287"/>
-    <mergeCell ref="I287:J287"/>
-    <mergeCell ref="K287:M287"/>
+    <mergeCell ref="A287:B288"/>
+    <mergeCell ref="C287:D288"/>
+    <mergeCell ref="E287:F288"/>
+    <mergeCell ref="G287:H288"/>
+    <mergeCell ref="I287:J288"/>
+    <mergeCell ref="K287:M288"/>
     <mergeCell ref="N287:P288"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="E288:F288"/>
-    <mergeCell ref="G288:H288"/>
-    <mergeCell ref="I288:J288"/>
-    <mergeCell ref="K288:M288"/>
     <mergeCell ref="A292:B292"/>
     <mergeCell ref="C292:F292"/>
     <mergeCell ref="G292:J292"/>
@@ -12826,19 +9066,13 @@
     <mergeCell ref="I305:J305"/>
     <mergeCell ref="K305:M305"/>
     <mergeCell ref="N305:P305"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="C306:D306"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="G306:H306"/>
-    <mergeCell ref="I306:J306"/>
-    <mergeCell ref="K306:M306"/>
+    <mergeCell ref="A306:B307"/>
+    <mergeCell ref="C306:D307"/>
+    <mergeCell ref="E306:F307"/>
+    <mergeCell ref="G306:H307"/>
+    <mergeCell ref="I306:J307"/>
+    <mergeCell ref="K306:M307"/>
     <mergeCell ref="N306:P307"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="C307:D307"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="G307:H307"/>
-    <mergeCell ref="I307:J307"/>
-    <mergeCell ref="K307:M307"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
